--- a/curation/BC_Package_2023_03_31.xlsx
+++ b/curation/BC_Package_2023_03_31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3F5CC6-64B2-4295-9C56-2F88A60DBA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB0C3E-8B9F-4C73-BBED-E82FA2954BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_DM" sheetId="27" r:id="rId1"/>
@@ -18,16 +18,17 @@
     <sheet name="BC_LB" sheetId="8" r:id="rId3"/>
     <sheet name="BC_MB" sheetId="28" r:id="rId4"/>
     <sheet name="BC_AE" sheetId="36" r:id="rId5"/>
-    <sheet name="BC_CM" sheetId="33" r:id="rId6"/>
-    <sheet name="BC_RE" sheetId="30" r:id="rId7"/>
-    <sheet name="BC_PR" sheetId="31" r:id="rId8"/>
-    <sheet name="BC_BE" sheetId="29" r:id="rId9"/>
-    <sheet name="BC_EG" sheetId="22" r:id="rId10"/>
-    <sheet name="BC_DS" sheetId="14" r:id="rId11"/>
-    <sheet name="NCIt Placeholders" sheetId="13" r:id="rId12"/>
+    <sheet name="BC_MH" sheetId="37" r:id="rId6"/>
+    <sheet name="BC_CM" sheetId="33" r:id="rId7"/>
+    <sheet name="BC_RE" sheetId="30" r:id="rId8"/>
+    <sheet name="BC_PR" sheetId="31" r:id="rId9"/>
+    <sheet name="BC_BE" sheetId="29" r:id="rId10"/>
+    <sheet name="BC_EG" sheetId="22" r:id="rId11"/>
+    <sheet name="BC_DS" sheetId="14" r:id="rId12"/>
+    <sheet name="NCIt Placeholders" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">BC_EG!$A$1:$O$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">BC_EG!$A$1:$O$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BC_LB!$A$1:$P$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BC_VS!$A$1:$O$8</definedName>
   </definedNames>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="536">
   <si>
     <t>package_date</t>
   </si>
@@ -1626,6 +1627,54 @@
   </si>
   <si>
     <t>A radiographic procedure using the emission of x-rays to form an image of the structure penetrated by the radiation.</t>
+  </si>
+  <si>
+    <t>The collected name for an event observation.</t>
+  </si>
+  <si>
+    <t>Reported Events; Medical History Events; Medical Conditions; Presenting Conditions</t>
+  </si>
+  <si>
+    <t>C83118</t>
+  </si>
+  <si>
+    <t>Medical History Reported Term</t>
+  </si>
+  <si>
+    <t>Medical History; MHTERM</t>
+  </si>
+  <si>
+    <t>C83346</t>
+  </si>
+  <si>
+    <t>Medical History Dictionary Derived Term</t>
+  </si>
+  <si>
+    <t>C83018</t>
+  </si>
+  <si>
+    <t>Medical History Category</t>
+  </si>
+  <si>
+    <t>C83143</t>
+  </si>
+  <si>
+    <t>Medical History Subcategory</t>
+  </si>
+  <si>
+    <t>C87897</t>
+  </si>
+  <si>
+    <t>Medical History Pre-specified</t>
+  </si>
+  <si>
+    <t>C83067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical History Occurrence </t>
+  </si>
+  <si>
+    <t>The verbatim description of the medical history being reported.</t>
   </si>
 </sst>
 </file>
@@ -2348,23 +2397,23 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47.59765625" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.73046875" customWidth="1"/>
+    <col min="6" max="6" width="19.265625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="72" style="9" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.1328125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="6" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" customWidth="1"/>
-    <col min="15" max="15" width="49.85546875" customWidth="1"/>
+    <col min="11" max="11" width="5.1328125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="27.73046875" customWidth="1"/>
+    <col min="15" max="15" width="49.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2411,7 +2460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -2435,7 +2484,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -2459,7 +2508,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -2486,7 +2535,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
@@ -2506,7 +2555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
@@ -2532,7 +2581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
@@ -2555,7 +2604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>15</v>
       </c>
@@ -2581,7 +2630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
@@ -2604,7 +2653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
@@ -2656,6 +2705,297 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC7AE7F-1668-415E-8316-B69305094CC9}">
+  <dimension ref="A1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50" customWidth="1"/>
+    <col min="9" max="9" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
+    <col min="15" max="15" width="10.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="41" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="F2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="N4" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>352</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="L7" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="40"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="H8" s="9"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" s="40"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="H9" s="9"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" display="https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C82571" xr:uid="{4F336F55-DA38-4BFA-A8FE-1B50799B12D9}"/>
+    <hyperlink ref="L4" r:id="rId2" display="https://evsexplore.nci.nih.gov/evsexplore/concept/ncit/C82977" xr:uid="{84616E4F-44BE-4656-94FE-3CAEDF7CDCB9}"/>
+    <hyperlink ref="L5" r:id="rId3" display="https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C25372" xr:uid="{7D202BF9-76BC-40DB-9E31-E3CC4E640E24}"/>
+    <hyperlink ref="L6" r:id="rId4" display="https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C25692" xr:uid="{089EDE5B-41FF-4CA6-878A-1C77F1E5873E}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{8CA55E9B-8F6C-4EFA-BFDA-4D26710188D6}"/>
+    <hyperlink ref="C3:C6" r:id="rId6" display="C70945" xr:uid="{3EAC77A3-7633-4967-9FE5-4584FEB6951E}"/>
+    <hyperlink ref="L7" r:id="rId7" xr:uid="{3A80CB5A-691C-4326-A475-9708183012A1}"/>
+    <hyperlink ref="C7" r:id="rId8" xr:uid="{1C9D9F76-9433-40B0-AF2A-78150A167C1E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA66AC2-B345-487D-8D73-AE011EF2E448}">
   <dimension ref="A1:O107"/>
   <sheetViews>
@@ -2663,21 +3003,21 @@
       <selection activeCell="O80" sqref="O80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="56.28515625" customWidth="1"/>
-    <col min="13" max="13" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.1328125" customWidth="1"/>
+    <col min="5" max="5" width="38.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.73046875" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="56.265625" customWidth="1"/>
+    <col min="13" max="13" width="31.86328125" customWidth="1"/>
     <col min="15" max="15" width="65" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +3064,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="43" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="80" t="s">
         <v>15</v>
       </c>
@@ -2746,7 +3086,7 @@
       </c>
       <c r="L2" s="51"/>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -2785,7 +3125,7 @@
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -2820,7 +3160,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
@@ -2855,7 +3195,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -2890,7 +3230,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -2925,7 +3265,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -2960,7 +3300,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
@@ -2995,7 +3335,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="43" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="80" t="s">
         <v>15</v>
       </c>
@@ -3017,7 +3357,7 @@
       </c>
       <c r="L10" s="51"/>
     </row>
-    <row r="11" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
@@ -3053,7 +3393,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
@@ -3088,7 +3428,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
@@ -3123,7 +3463,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -3152,7 +3492,7 @@
       </c>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
@@ -3183,7 +3523,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -3216,7 +3556,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -3247,7 +3587,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
@@ -3283,7 +3623,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
@@ -3318,7 +3658,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
@@ -3353,7 +3693,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>15</v>
       </c>
@@ -3382,7 +3722,7 @@
       </c>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
         <v>15</v>
       </c>
@@ -3413,7 +3753,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
         <v>15</v>
       </c>
@@ -3446,7 +3786,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
         <v>15</v>
       </c>
@@ -3477,7 +3817,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>15</v>
       </c>
@@ -3513,7 +3853,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
@@ -3548,7 +3888,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
         <v>15</v>
       </c>
@@ -3583,7 +3923,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
         <v>15</v>
       </c>
@@ -3612,7 +3952,7 @@
       </c>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="14" t="s">
         <v>15</v>
       </c>
@@ -3643,7 +3983,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -3676,7 +4016,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -3707,7 +4047,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -3743,7 +4083,7 @@
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
         <v>15</v>
       </c>
@@ -3778,7 +4118,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A34" s="14" t="s">
         <v>15</v>
       </c>
@@ -3813,7 +4153,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A35" s="14" t="s">
         <v>15</v>
       </c>
@@ -3842,7 +4182,7 @@
       </c>
       <c r="O35" s="12"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A36" s="14" t="s">
         <v>15</v>
       </c>
@@ -3873,7 +4213,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="14" t="s">
         <v>15</v>
       </c>
@@ -3906,7 +4246,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A38" s="14" t="s">
         <v>15</v>
       </c>
@@ -3937,7 +4277,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A39" s="14" t="s">
         <v>15</v>
       </c>
@@ -3973,7 +4313,7 @@
       </c>
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A40" s="14" t="s">
         <v>15</v>
       </c>
@@ -4008,7 +4348,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A41" s="14" t="s">
         <v>15</v>
       </c>
@@ -4043,7 +4383,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A42" s="14" t="s">
         <v>15</v>
       </c>
@@ -4076,7 +4416,7 @@
       </c>
       <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
         <v>15</v>
       </c>
@@ -4111,7 +4451,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A44" s="14" t="s">
         <v>15</v>
       </c>
@@ -4144,7 +4484,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
         <v>15</v>
       </c>
@@ -4175,7 +4515,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A46" s="14" t="s">
         <v>15</v>
       </c>
@@ -4211,7 +4551,7 @@
       </c>
       <c r="L46" s="4"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A47" s="14" t="s">
         <v>15</v>
       </c>
@@ -4246,7 +4586,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A48" s="14" t="s">
         <v>15</v>
       </c>
@@ -4281,7 +4621,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A49" s="14" t="s">
         <v>15</v>
       </c>
@@ -4314,7 +4654,7 @@
       </c>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A50" s="14" t="s">
         <v>15</v>
       </c>
@@ -4349,7 +4689,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A51" s="14" t="s">
         <v>15</v>
       </c>
@@ -4382,7 +4722,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A52" s="14" t="s">
         <v>15</v>
       </c>
@@ -4413,7 +4753,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A53" s="14" t="s">
         <v>15</v>
       </c>
@@ -4449,7 +4789,7 @@
       </c>
       <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A54" s="14" t="s">
         <v>15</v>
       </c>
@@ -4484,7 +4824,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A55" s="14" t="s">
         <v>15</v>
       </c>
@@ -4519,7 +4859,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A56" s="14" t="s">
         <v>15</v>
       </c>
@@ -4552,7 +4892,7 @@
       </c>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A57" s="14" t="s">
         <v>15</v>
       </c>
@@ -4587,7 +4927,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A58" s="14" t="s">
         <v>15</v>
       </c>
@@ -4620,7 +4960,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A59" s="14" t="s">
         <v>15</v>
       </c>
@@ -4651,7 +4991,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="14" t="s">
         <v>15</v>
       </c>
@@ -4685,7 +5025,7 @@
       </c>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A61" s="14" t="s">
         <v>15</v>
       </c>
@@ -4720,7 +5060,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A62" s="14" t="s">
         <v>15</v>
       </c>
@@ -4755,7 +5095,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A63" s="14" t="s">
         <v>15</v>
       </c>
@@ -4788,7 +5128,7 @@
       </c>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A64" s="14" t="s">
         <v>15</v>
       </c>
@@ -4823,7 +5163,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A65" s="14" t="s">
         <v>15</v>
       </c>
@@ -4856,7 +5196,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A66" s="14" t="s">
         <v>15</v>
       </c>
@@ -4887,7 +5227,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A67" s="14" t="s">
         <v>15</v>
       </c>
@@ -4923,7 +5263,7 @@
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="14" t="s">
         <v>15</v>
       </c>
@@ -4958,7 +5298,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A69" s="14" t="s">
         <v>15</v>
       </c>
@@ -4993,7 +5333,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A70" s="14" t="s">
         <v>15</v>
       </c>
@@ -5026,7 +5366,7 @@
       </c>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A71" s="14" t="s">
         <v>15</v>
       </c>
@@ -5061,7 +5401,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A72" s="14" t="s">
         <v>15</v>
       </c>
@@ -5094,7 +5434,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A73" s="14" t="s">
         <v>15</v>
       </c>
@@ -5125,7 +5465,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A74" s="14"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -5133,7 +5473,7 @@
       <c r="H74" s="9"/>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A75" s="14"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -5141,7 +5481,7 @@
       <c r="H75" s="9"/>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A76" s="14"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -5149,7 +5489,7 @@
       <c r="H76" s="9"/>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A77" s="14"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -5157,7 +5497,7 @@
       <c r="H77" s="9"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A78" s="14"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -5165,7 +5505,7 @@
       <c r="H78" s="9"/>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A79" s="14"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -5173,7 +5513,7 @@
       <c r="H79" s="9"/>
       <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A80" s="14"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -5181,7 +5521,7 @@
       <c r="H80" s="9"/>
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="14"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -5189,7 +5529,7 @@
       <c r="H81" s="9"/>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="14"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -5197,7 +5537,7 @@
       <c r="H82" s="9"/>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="14"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -5205,7 +5545,7 @@
       <c r="H83" s="9"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="14"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -5213,7 +5553,7 @@
       <c r="H84" s="9"/>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="14"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -5221,7 +5561,7 @@
       <c r="H85" s="9"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="14"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -5229,7 +5569,7 @@
       <c r="H86" s="9"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="14"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -5237,7 +5577,7 @@
       <c r="H87" s="9"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="14"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -5245,7 +5585,7 @@
       <c r="H88" s="9"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="14"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -5253,7 +5593,7 @@
       <c r="H89" s="9"/>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="14"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -5261,7 +5601,7 @@
       <c r="H90" s="9"/>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="14"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -5269,7 +5609,7 @@
       <c r="H91" s="9"/>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="14"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -5277,7 +5617,7 @@
       <c r="H92" s="9"/>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="14"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -5285,7 +5625,7 @@
       <c r="H93" s="9"/>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="14"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -5293,7 +5633,7 @@
       <c r="H94" s="9"/>
       <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="14"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -5301,7 +5641,7 @@
       <c r="H95" s="9"/>
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="14"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -5309,7 +5649,7 @@
       <c r="H96" s="9"/>
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="14"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -5317,7 +5657,7 @@
       <c r="H97" s="9"/>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="14"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -5325,7 +5665,7 @@
       <c r="H98" s="9"/>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="14"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -5333,7 +5673,7 @@
       <c r="H99" s="9"/>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="14"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -5341,7 +5681,7 @@
       <c r="H100" s="9"/>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="14"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -5349,7 +5689,7 @@
       <c r="H101" s="9"/>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="14"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -5357,7 +5697,7 @@
       <c r="H102" s="9"/>
       <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="14"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -5365,7 +5705,7 @@
       <c r="H103" s="9"/>
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="14"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -5373,7 +5713,7 @@
       <c r="H104" s="9"/>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="14"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -5381,7 +5721,7 @@
       <c r="H105" s="9"/>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="14"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -5389,7 +5729,7 @@
       <c r="H106" s="9"/>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="14"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -5508,7 +5848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2110127A-6DB5-413E-8873-1BEF9F2EE846}">
   <dimension ref="A1:O33"/>
   <sheetViews>
@@ -5516,24 +5856,24 @@
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="68.28515625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.73046875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" customWidth="1"/>
+    <col min="5" max="5" width="46.73046875" customWidth="1"/>
+    <col min="6" max="6" width="24.1328125" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="8" max="8" width="68.265625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" customWidth="1"/>
+    <col min="11" max="11" width="4.73046875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="32" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" customWidth="1"/>
-    <col min="15" max="15" width="31.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.1328125" customWidth="1"/>
+    <col min="15" max="15" width="31.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5580,7 +5920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="43" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="80" t="s">
         <v>15</v>
       </c>
@@ -5599,7 +5939,7 @@
       </c>
       <c r="L2" s="50"/>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -5625,7 +5965,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -5652,7 +5992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
@@ -5682,7 +6022,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -5709,7 +6049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -5736,7 +6076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -5762,7 +6102,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
@@ -5788,7 +6128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -5817,7 +6157,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
@@ -5843,7 +6183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
@@ -5869,7 +6209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
@@ -5895,7 +6235,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -5921,7 +6261,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
@@ -5950,7 +6290,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -5976,7 +6316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -6002,7 +6342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="43" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="43" t="s">
         <v>15</v>
       </c>
@@ -6023,7 +6363,7 @@
       </c>
       <c r="L18" s="50"/>
     </row>
-    <row r="19" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
         <v>15</v>
       </c>
@@ -6049,7 +6389,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
@@ -6075,7 +6415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
         <v>15</v>
       </c>
@@ -6104,7 +6444,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
         <v>15</v>
       </c>
@@ -6130,7 +6470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
         <v>15</v>
       </c>
@@ -6156,7 +6496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
         <v>15</v>
       </c>
@@ -6179,7 +6519,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
         <v>15</v>
       </c>
@@ -6205,7 +6545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
         <v>15</v>
       </c>
@@ -6234,7 +6574,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="14" t="s">
         <v>15</v>
       </c>
@@ -6260,7 +6600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="14" t="s">
         <v>15</v>
       </c>
@@ -6286,7 +6626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="14" t="s">
         <v>15</v>
       </c>
@@ -6309,7 +6649,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
         <v>15</v>
       </c>
@@ -6335,7 +6675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="14" t="s">
         <v>15</v>
       </c>
@@ -6364,7 +6704,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -6390,7 +6730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
         <v>15</v>
       </c>
@@ -6477,7 +6817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253F1A8-4D53-4FEC-828B-55F619DE8B8E}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -6485,16 +6825,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="62.265625" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="55.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>485</v>
       </c>
@@ -6502,7 +6842,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="72" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="72" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="56" t="s">
         <v>487</v>
       </c>
@@ -6513,7 +6853,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="56" t="s">
         <v>87</v>
       </c>
@@ -6521,7 +6861,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="56" t="s">
         <v>490</v>
       </c>
@@ -6529,7 +6869,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="56" t="s">
         <v>179</v>
       </c>
@@ -6537,7 +6877,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="56" t="s">
         <v>176</v>
       </c>
@@ -6545,7 +6885,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>491</v>
       </c>
@@ -6556,7 +6896,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>491</v>
       </c>
@@ -6581,22 +6921,22 @@
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.1328125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.73046875" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="85.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="85.86328125" customWidth="1"/>
+    <col min="9" max="9" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.1328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -6643,7 +6983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="91" t="s">
         <v>15</v>
       </c>
@@ -6674,7 +7014,7 @@
       <c r="P2" s="67"/>
       <c r="Q2" s="67"/>
     </row>
-    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -6711,7 +7051,7 @@
       <c r="L3" s="64"/>
       <c r="Q3" s="65"/>
     </row>
-    <row r="4" spans="1:17" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -6738,7 +7078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
@@ -6768,7 +7108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -6797,7 +7137,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -6826,7 +7166,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -6887,28 +7227,28 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" style="19" customWidth="1"/>
     <col min="2" max="2" width="68" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="57.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="47.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="57.265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.59765625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.1328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="31.265625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.73046875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="23.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.265625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="26" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -6958,7 +7298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -6986,7 +7326,7 @@
       <c r="I2" s="17"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -7014,7 +7354,7 @@
       </c>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -7042,7 +7382,7 @@
       </c>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
@@ -7072,7 +7412,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
@@ -7102,7 +7442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
@@ -7130,7 +7470,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="19" t="s">
         <v>15</v>
       </c>
@@ -7158,7 +7498,7 @@
       </c>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
@@ -7186,7 +7526,7 @@
       </c>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
@@ -7216,7 +7556,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
@@ -7246,7 +7586,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>15</v>
       </c>
@@ -7274,7 +7614,7 @@
       <c r="I12" s="17"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="19" t="s">
         <v>15</v>
       </c>
@@ -7302,7 +7642,7 @@
       </c>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -7330,7 +7670,7 @@
       </c>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
@@ -7360,7 +7700,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
@@ -7390,7 +7730,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="19" t="s">
         <v>15</v>
       </c>
@@ -7418,7 +7758,7 @@
       <c r="I17" s="17"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="19" t="s">
         <v>15</v>
       </c>
@@ -7446,7 +7786,7 @@
       </c>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="19" t="s">
         <v>15</v>
       </c>
@@ -7474,7 +7814,7 @@
       </c>
       <c r="O19" s="10"/>
     </row>
-    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="19" t="s">
         <v>15</v>
       </c>
@@ -7504,7 +7844,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19" t="s">
         <v>15</v>
       </c>
@@ -7534,7 +7874,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="19" t="s">
         <v>15</v>
       </c>
@@ -7562,7 +7902,7 @@
       <c r="I22" s="17"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="19" t="s">
         <v>15</v>
       </c>
@@ -7590,7 +7930,7 @@
       </c>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="19" t="s">
         <v>15</v>
       </c>
@@ -7618,7 +7958,7 @@
       </c>
       <c r="O24" s="10"/>
     </row>
-    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
         <v>15</v>
       </c>
@@ -7648,7 +7988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="19" t="s">
         <v>15</v>
       </c>
@@ -7678,7 +8018,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="19" t="s">
         <v>15</v>
       </c>
@@ -7713,7 +8053,7 @@
       <c r="P27" s="31"/>
       <c r="Q27" s="31"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A28" s="19" t="s">
         <v>15</v>
       </c>
@@ -7748,7 +8088,7 @@
       <c r="P28" s="31"/>
       <c r="Q28" s="31"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="19" t="s">
         <v>15</v>
       </c>
@@ -7783,7 +8123,7 @@
       <c r="P29" s="31"/>
       <c r="Q29" s="31"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="19" t="s">
         <v>15</v>
       </c>
@@ -7820,7 +8160,7 @@
       <c r="P30" s="31"/>
       <c r="Q30" s="31"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="19" t="s">
         <v>15</v>
       </c>
@@ -7857,7 +8197,7 @@
       <c r="P31" s="31"/>
       <c r="Q31" s="31"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="19" t="s">
         <v>15</v>
       </c>
@@ -7892,7 +8232,7 @@
       <c r="P32" s="31"/>
       <c r="Q32" s="34"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
@@ -7927,7 +8267,7 @@
       <c r="P33" s="31"/>
       <c r="Q33" s="34"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A34" s="19" t="s">
         <v>15</v>
       </c>
@@ -7962,7 +8302,7 @@
       <c r="P34" s="31"/>
       <c r="Q34" s="34"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A35" s="19" t="s">
         <v>15</v>
       </c>
@@ -7999,7 +8339,7 @@
       <c r="P35" s="31"/>
       <c r="Q35" s="34"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A36" s="19" t="s">
         <v>15</v>
       </c>
@@ -8036,7 +8376,7 @@
       <c r="P36" s="31"/>
       <c r="Q36" s="34"/>
     </row>
-    <row r="37" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A37" s="19" t="s">
         <v>15</v>
       </c>
@@ -8071,7 +8411,7 @@
       <c r="P37" s="34"/>
       <c r="Q37" s="34"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A38" s="19" t="s">
         <v>15</v>
       </c>
@@ -8105,7 +8445,7 @@
       <c r="P38" s="34"/>
       <c r="Q38" s="34"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A39" s="19" t="s">
         <v>15</v>
       </c>
@@ -8139,7 +8479,7 @@
       <c r="P39" s="34"/>
       <c r="Q39" s="34"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A40" s="19" t="s">
         <v>15</v>
       </c>
@@ -8175,7 +8515,7 @@
       <c r="P40" s="31"/>
       <c r="Q40" s="31"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A41" s="19" t="s">
         <v>15</v>
       </c>
@@ -8211,7 +8551,7 @@
       <c r="P41" s="31"/>
       <c r="Q41" s="34"/>
     </row>
-    <row r="42" spans="1:17" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="75" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="19" t="s">
         <v>15</v>
       </c>
@@ -8236,7 +8576,7 @@
       <c r="N42" s="74"/>
       <c r="O42" s="74"/>
     </row>
-    <row r="43" spans="1:17" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="19" t="s">
         <v>15</v>
       </c>
@@ -8264,7 +8604,7 @@
       <c r="I43" s="17"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="19" t="s">
         <v>15</v>
       </c>
@@ -8292,7 +8632,7 @@
       </c>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="19" t="s">
         <v>15</v>
       </c>
@@ -8322,7 +8662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="19" t="s">
         <v>15</v>
       </c>
@@ -8350,7 +8690,7 @@
       <c r="I46" s="17"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="19" t="s">
         <v>15</v>
       </c>
@@ -8378,7 +8718,7 @@
       </c>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="19" t="s">
         <v>15</v>
       </c>
@@ -8408,7 +8748,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="19" t="s">
         <v>15</v>
       </c>
@@ -8438,7 +8778,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="75" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="73" t="s">
         <v>15</v>
       </c>
@@ -8461,7 +8801,7 @@
       <c r="N50" s="74"/>
       <c r="O50" s="74"/>
     </row>
-    <row r="51" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="19" t="s">
         <v>15</v>
       </c>
@@ -8495,7 +8835,7 @@
       <c r="O51" s="37"/>
       <c r="P51" s="37"/>
     </row>
-    <row r="52" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="19" t="s">
         <v>15</v>
       </c>
@@ -8529,7 +8869,7 @@
       <c r="O52" s="37"/>
       <c r="P52" s="37"/>
     </row>
-    <row r="53" spans="1:16" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="19" t="s">
         <v>15</v>
       </c>
@@ -8563,7 +8903,7 @@
       <c r="O53" s="37"/>
       <c r="P53" s="37"/>
     </row>
-    <row r="54" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="19" t="s">
         <v>15</v>
       </c>
@@ -8599,7 +8939,7 @@
       </c>
       <c r="P54" s="37"/>
     </row>
-    <row r="55" spans="1:16" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="75" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="73" t="s">
         <v>15</v>
       </c>
@@ -8622,7 +8962,7 @@
       <c r="N55" s="74"/>
       <c r="O55" s="74"/>
     </row>
-    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="19" t="s">
         <v>15</v>
       </c>
@@ -8656,7 +8996,7 @@
       <c r="O56" s="37"/>
       <c r="P56" s="37"/>
     </row>
-    <row r="57" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="19" t="s">
         <v>15</v>
       </c>
@@ -8690,7 +9030,7 @@
       <c r="O57" s="37"/>
       <c r="P57" s="37"/>
     </row>
-    <row r="58" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="19" t="s">
         <v>15</v>
       </c>
@@ -8724,7 +9064,7 @@
       <c r="O58" s="37"/>
       <c r="P58" s="37"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" s="19" t="s">
         <v>15</v>
       </c>
@@ -8760,7 +9100,7 @@
       </c>
       <c r="P59" s="37"/>
     </row>
-    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="19" t="s">
         <v>15</v>
       </c>
@@ -8792,7 +9132,7 @@
       <c r="O60" s="37"/>
       <c r="P60" s="37"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" s="19" t="s">
         <v>15</v>
       </c>
@@ -8824,7 +9164,7 @@
       <c r="O61" s="37"/>
       <c r="P61" s="37"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" s="19" t="s">
         <v>15</v>
       </c>
@@ -8856,7 +9196,7 @@
       <c r="O62" s="37"/>
       <c r="P62" s="37"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" s="19" t="s">
         <v>15</v>
       </c>
@@ -8890,7 +9230,7 @@
       </c>
       <c r="P63" s="37"/>
     </row>
-    <row r="64" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="19" t="s">
         <v>15</v>
       </c>
@@ -8930,7 +9270,7 @@
       <c r="O64" s="37"/>
       <c r="P64" s="37"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" s="19" t="s">
         <v>15</v>
       </c>
@@ -8964,7 +9304,7 @@
       <c r="O65" s="37"/>
       <c r="P65" s="37"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" s="19" t="s">
         <v>15</v>
       </c>
@@ -9000,7 +9340,7 @@
       </c>
       <c r="P66" s="37"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" s="19" t="s">
         <v>15</v>
       </c>
@@ -9171,24 +9511,24 @@
       <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" customWidth="1"/>
+    <col min="5" max="5" width="60.265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" customWidth="1"/>
-    <col min="13" max="13" width="45.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.1328125" customWidth="1"/>
+    <col min="9" max="9" width="5.59765625" customWidth="1"/>
+    <col min="10" max="10" width="5.86328125" customWidth="1"/>
+    <col min="11" max="11" width="4.3984375" customWidth="1"/>
+    <col min="13" max="13" width="45.3984375" customWidth="1"/>
     <col min="15" max="15" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="41" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
@@ -9235,7 +9575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="79" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="88" t="s">
         <v>15</v>
       </c>
@@ -9257,7 +9597,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="89" t="s">
         <v>15</v>
       </c>
@@ -9277,7 +9617,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="71" t="s">
         <v>15</v>
       </c>
@@ -9303,7 +9643,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="71" t="s">
         <v>15</v>
       </c>
@@ -9338,7 +9678,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="71" t="s">
         <v>15</v>
       </c>
@@ -9373,7 +9713,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="71" t="s">
         <v>15</v>
       </c>
@@ -9408,7 +9748,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="71" t="s">
         <v>15</v>
       </c>
@@ -9443,7 +9783,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="71" t="s">
         <v>15</v>
       </c>
@@ -9478,7 +9818,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="71" t="s">
         <v>15</v>
       </c>
@@ -9513,7 +9853,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="71" t="s">
         <v>15</v>
       </c>
@@ -9542,7 +9882,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="71" t="s">
         <v>15</v>
       </c>
@@ -9577,7 +9917,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="71" t="s">
         <v>15</v>
       </c>
@@ -9609,7 +9949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="71" t="s">
         <v>15</v>
       </c>
@@ -9644,7 +9984,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="71" t="s">
         <v>15</v>
       </c>
@@ -9679,7 +10019,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="71" t="s">
         <v>15</v>
       </c>
@@ -9714,7 +10054,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="71" t="s">
         <v>15</v>
       </c>
@@ -9749,7 +10089,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="71" t="s">
         <v>15</v>
       </c>
@@ -9784,7 +10124,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="71" t="s">
         <v>15</v>
       </c>
@@ -9813,7 +10153,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
-    <row r="20" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="71" t="s">
         <v>15</v>
       </c>
@@ -9848,7 +10188,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="71" t="s">
         <v>15</v>
       </c>
@@ -9883,7 +10223,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="71" t="s">
         <v>15</v>
       </c>
@@ -9918,7 +10258,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="58" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="71" t="s">
         <v>15</v>
       </c>
@@ -10007,24 +10347,24 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.86328125" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.73046875" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
-    <col min="8" max="8" width="50.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" customWidth="1"/>
+    <col min="7" max="7" width="7.59765625" customWidth="1"/>
+    <col min="8" max="8" width="50.59765625" customWidth="1"/>
+    <col min="9" max="9" width="5.265625" customWidth="1"/>
+    <col min="10" max="10" width="5.73046875" customWidth="1"/>
+    <col min="11" max="11" width="4.86328125" customWidth="1"/>
     <col min="13" max="13" width="34" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -10071,7 +10411,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="80" t="s">
         <v>15</v>
       </c>
@@ -10089,7 +10429,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -10115,7 +10455,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -10141,7 +10481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
@@ -10167,7 +10507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -10193,7 +10533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -10219,7 +10559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -10248,7 +10588,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
@@ -10277,7 +10617,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -10306,7 +10646,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
@@ -10335,7 +10675,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
@@ -10364,7 +10704,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
@@ -10393,7 +10733,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -10422,7 +10762,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
@@ -10467,6 +10807,300 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A84AC3-0599-4EBA-84AF-FCF7BB5B65B2}">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="2" max="2" width="33.19921875" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" customWidth="1"/>
+    <col min="13" max="13" width="33.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D4" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>523</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="L4" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="M4" t="s">
+        <v>523</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" t="s">
+        <v>523</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="L5" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="M5" t="s">
+        <v>526</v>
+      </c>
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" t="s">
+        <v>523</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="L6" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="M6" t="s">
+        <v>528</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>521</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" t="s">
+        <v>523</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="L7" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="M7" t="s">
+        <v>530</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="L8" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="M8" t="s">
+        <v>532</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" t="s">
+        <v>523</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="L9" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="M9" t="s">
+        <v>534</v>
+      </c>
+      <c r="N9" t="s">
+        <v>86</v>
+      </c>
+      <c r="O9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{1F86DD57-E460-4A46-90F1-105CB7E424B8}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{077735CA-590E-4D6C-AA3B-0E7789ED57E3}"/>
+    <hyperlink ref="L6" r:id="rId3" xr:uid="{8AAE1096-38A9-4C73-A000-84C8B703AE47}"/>
+    <hyperlink ref="L9" r:id="rId4" xr:uid="{66D94DEA-221A-4B6B-BFD1-D17FDA97DB4C}"/>
+    <hyperlink ref="L7" r:id="rId5" xr:uid="{81EF9F73-D0F4-49D5-97C4-E7656683C45A}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{5505A793-00F8-480D-9211-3CC4CD2CD15F}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{A973D1FB-56E5-4253-B7F7-BEF524C4344B}"/>
+    <hyperlink ref="C4:C9" r:id="rId8" display="C83118" xr:uid="{9D4117C3-6635-478D-8980-B0168187C1ED}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{3BF645D5-56A9-46EE-B645-32DEF77D277F}"/>
+    <hyperlink ref="C2" r:id="rId10" xr:uid="{E0C5AAA2-F9E8-432D-AE09-F54BBC2C8A25}"/>
+    <hyperlink ref="D4:D9" r:id="rId11" display="C82571" xr:uid="{C30D6F92-7353-4DCE-A4B1-73846366C713}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563E102B-33E4-478E-B166-9158413B6D66}">
   <dimension ref="A1:O31"/>
   <sheetViews>
@@ -10476,24 +11110,24 @@
       <selection pane="bottomLeft" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.86328125" customWidth="1"/>
+    <col min="5" max="5" width="28.265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.28515625" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.265625" customWidth="1"/>
+    <col min="9" max="9" width="4.73046875" customWidth="1"/>
+    <col min="10" max="10" width="5.73046875" customWidth="1"/>
+    <col min="11" max="11" width="3.86328125" customWidth="1"/>
+    <col min="13" max="13" width="40.265625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -10540,7 +11174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="79" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="79" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="92" t="s">
         <v>15</v>
       </c>
@@ -10561,7 +11195,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="43" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="80" t="s">
         <v>15</v>
       </c>
@@ -10584,7 +11218,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -10610,7 +11244,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
@@ -10641,7 +11275,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -10667,7 +11301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
@@ -10693,7 +11327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -10719,7 +11353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>15</v>
       </c>
@@ -10748,7 +11382,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>15</v>
       </c>
@@ -10777,7 +11411,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>15</v>
       </c>
@@ -10803,7 +11437,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
@@ -10829,7 +11463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
@@ -10858,7 +11492,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>15</v>
       </c>
@@ -10887,7 +11521,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
@@ -10913,7 +11547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -10942,7 +11576,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
         <v>15</v>
       </c>
@@ -10971,62 +11605,62 @@
         <v>512</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="28.7" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D18" s="15"/>
       <c r="F18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D19" s="15"/>
       <c r="F19" s="9"/>
       <c r="H19" s="9"/>
       <c r="L19" s="15"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D20" s="15"/>
       <c r="L20" s="15"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D21" s="15"/>
       <c r="L21" s="15"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D22" s="15"/>
       <c r="L22" s="15"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D23" s="15"/>
       <c r="L23" s="15"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D24" s="15"/>
       <c r="L24" s="15"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D25" s="15"/>
       <c r="L25" s="15"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D26" s="15"/>
       <c r="L26" s="15"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D27" s="15"/>
       <c r="L27" s="15"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D28" s="15"/>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D29" s="15"/>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D30" s="15"/>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D31" s="15"/>
       <c r="L31" s="15"/>
     </row>
@@ -11059,7 +11693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB6A19DF-1E9E-470C-B3B2-0BC5237B4E15}">
   <dimension ref="A1:O7"/>
   <sheetViews>
@@ -11067,22 +11701,22 @@
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="41.73046875" customWidth="1"/>
+    <col min="9" max="9" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="48" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -11129,7 +11763,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="80" t="s">
         <v>15</v>
       </c>
@@ -11146,7 +11780,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -11173,7 +11807,7 @@
       </c>
       <c r="L3" s="37"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
@@ -11202,7 +11836,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
@@ -11231,7 +11865,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
@@ -11260,7 +11894,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7"/>
       <c r="L7" s="15" t="s">
         <v>319</v>
@@ -11293,33 +11927,33 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9941F7AF-6D9F-42D7-994E-A180BAE5303D}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" style="98" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="9"/>
-    <col min="5" max="5" width="20.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.86328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" style="9"/>
+    <col min="5" max="5" width="20.265625" style="9" customWidth="1"/>
     <col min="6" max="6" width="27" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="9"/>
-    <col min="13" max="13" width="26.28515625" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="9"/>
+    <col min="7" max="7" width="10.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.59765625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="6.73046875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="7.1328125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="4.59765625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.1328125" style="9"/>
+    <col min="13" max="13" width="26.265625" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="49" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
@@ -11366,7 +12000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="47" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="95" t="s">
         <v>15</v>
       </c>
@@ -11388,7 +12022,7 @@
       </c>
       <c r="L2" s="97"/>
     </row>
-    <row r="3" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="98" t="s">
         <v>15</v>
       </c>
@@ -11415,7 +12049,7 @@
       </c>
       <c r="L3" s="38"/>
     </row>
-    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="98" t="s">
         <v>15</v>
       </c>
@@ -11444,7 +12078,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="98" t="s">
         <v>15</v>
       </c>
@@ -11473,7 +12107,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="98" t="s">
         <v>15</v>
       </c>
@@ -11502,7 +12136,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="98" t="s">
         <v>15</v>
       </c>
@@ -11529,7 +12163,7 @@
       </c>
       <c r="L7" s="38"/>
     </row>
-    <row r="8" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="98" t="s">
         <v>15</v>
       </c>
@@ -11558,7 +12192,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="98" t="s">
         <v>15</v>
       </c>
@@ -11587,7 +12221,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A10" s="98" t="s">
         <v>15</v>
       </c>
@@ -11648,297 +12282,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC7AE7F-1668-415E-8316-B69305094CC9}">
-  <dimension ref="A1:P9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>343</v>
-      </c>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="M3" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="N3" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="M4" s="37" t="s">
-        <v>348</v>
-      </c>
-      <c r="N4" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="P4" s="37"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="M5" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>352</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="37" t="s">
-        <v>344</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="L7" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="M7" s="37" t="s">
-        <v>354</v>
-      </c>
-      <c r="N7" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="H8" s="9"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="H9" s="9"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="L3" r:id="rId1" display="https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C82571" xr:uid="{4F336F55-DA38-4BFA-A8FE-1B50799B12D9}"/>
-    <hyperlink ref="L4" r:id="rId2" display="https://evsexplore.nci.nih.gov/evsexplore/concept/ncit/C82977" xr:uid="{84616E4F-44BE-4656-94FE-3CAEDF7CDCB9}"/>
-    <hyperlink ref="L5" r:id="rId3" display="https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C25372" xr:uid="{7D202BF9-76BC-40DB-9E31-E3CC4E640E24}"/>
-    <hyperlink ref="L6" r:id="rId4" display="https://ncithesaurus.nci.nih.gov/ncitbrowser/ConceptReport.jsp?dictionary=NCI_Thesaurus&amp;ns=ncit&amp;code=C25692" xr:uid="{089EDE5B-41FF-4CA6-878A-1C77F1E5873E}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{8CA55E9B-8F6C-4EFA-BFDA-4D26710188D6}"/>
-    <hyperlink ref="C3:C6" r:id="rId6" display="C70945" xr:uid="{3EAC77A3-7633-4967-9FE5-4584FEB6951E}"/>
-    <hyperlink ref="L7" r:id="rId7" xr:uid="{3A80CB5A-691C-4326-A475-9708183012A1}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{1C9D9F76-9433-40B0-AF2A-78150A167C1E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11948,15 +12291,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95a591a9c1d64a7009b5597c446bd65f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63634f6e381b5ed55a864cdabf38da8d" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -12181,32 +12515,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C7FF019-6E9E-4327-8A98-09E2F73626E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9663087D-43C0-4E56-A8DA-483B09F130B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69987298-F94B-4FAE-824D-77320F34A719}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12223,4 +12558,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9663087D-43C0-4E56-A8DA-483B09F130B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/curation/BC_Package_2023_03_31.xlsx
+++ b/curation/BC_Package_2023_03_31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Documents\CDISC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{4DE2AD89-EFAA-4CFA-A418-9CEB9A64BB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC6D9F7C-E9A3-4BD0-B520-2732BEABEF63}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7958748-A498-40A8-BE36-F0772AEAA29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" firstSheet="10" activeTab="10" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_DM" sheetId="27" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="537">
   <si>
     <t>package_date</t>
   </si>
@@ -977,10 +977,6 @@
   </si>
   <si>
     <t>Any pharmaceutical agent, other than the primary therapy, that is administered to or used by the subject prior to or during a specified time period.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Concomitant Therapy</t>
   </si>
   <si>
     <t>C70902</t>
@@ -1407,9 +1403,6 @@
     <t>C117786</t>
   </si>
   <si>
-    <t>Aggregate QTCF Interval </t>
-  </si>
-  <si>
     <t>QTCF Interval Aggregate; QTCFAG</t>
   </si>
   <si>
@@ -1681,13 +1674,16 @@
   </si>
   <si>
     <t>(NCIt Code C127127)</t>
+  </si>
+  <si>
+    <t>Aggregate QTCF Interval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2403,7 +2399,7 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.5703125" customWidth="1"/>
@@ -2419,7 +2415,7 @@
     <col min="17" max="17" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="42.95">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2472,7 +2468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>17</v>
       </c>
@@ -2499,7 +2495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
@@ -2529,7 +2525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
@@ -2562,7 +2558,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="42.95">
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
@@ -2585,7 +2581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
@@ -2617,7 +2613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="28.7">
+    <row r="7" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
@@ -2643,7 +2639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
@@ -2675,7 +2671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="71.650000000000006">
+    <row r="9" spans="1:17" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
@@ -2701,7 +2697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -2779,7 +2775,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
@@ -2795,7 +2791,7 @@
     <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="41" customFormat="1" ht="28.7">
+    <row r="1" spans="1:18" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2848,31 +2844,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.7">
+    <row r="2" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="D2" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="37" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2" t="s">
         <v>382</v>
-      </c>
-      <c r="G2" t="s">
-        <v>383</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J2" s="100"/>
       <c r="K2" s="100"/>
@@ -2884,22 +2880,22 @@
       <c r="Q2" s="37"/>
       <c r="R2" s="37"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="D3" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="38"/>
@@ -2921,22 +2917,22 @@
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="D4" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E4" s="39"/>
       <c r="F4" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="38"/>
@@ -2944,38 +2940,38 @@
       <c r="K4" s="100"/>
       <c r="L4" s="37"/>
       <c r="M4" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="O4" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="N4" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="O4" s="37" t="s">
+      <c r="P4" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="P4" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>388</v>
-      </c>
       <c r="R4" s="37"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="D5" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="38"/>
@@ -2983,13 +2979,13 @@
       <c r="K5" s="100"/>
       <c r="L5" s="37"/>
       <c r="M5" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="O5" s="37" t="s">
         <v>389</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>390</v>
       </c>
       <c r="P5" s="37" t="s">
         <v>29</v>
@@ -2997,22 +2993,22 @@
       <c r="Q5" s="37"/>
       <c r="R5" s="37"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="D6" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="38"/>
@@ -3020,13 +3016,13 @@
       <c r="K6" s="100"/>
       <c r="L6" s="37"/>
       <c r="M6" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="O6" s="37" t="s">
         <v>391</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>392</v>
       </c>
       <c r="P6" s="37" t="s">
         <v>29</v>
@@ -3034,38 +3030,38 @@
       <c r="Q6" s="37"/>
       <c r="R6" s="37"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>381</v>
-      </c>
       <c r="D7" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I7" s="9"/>
       <c r="M7" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="O7" s="37" t="s">
         <v>393</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>393</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>394</v>
-      </c>
       <c r="P7" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -3075,7 +3071,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="37"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
@@ -3121,11 +3117,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA66AC2-B345-487D-8D73-AE011EF2E448}">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -3140,7 +3136,7 @@
     <col min="18" max="18" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.7">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -3193,68 +3189,68 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="43" customFormat="1" ht="71.650000000000006">
+    <row r="2" spans="1:17" s="43" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>396</v>
-      </c>
       <c r="D2" s="25" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E2" s="51"/>
       <c r="F2" s="52" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G2" s="53" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2" s="54" t="s">
         <v>397</v>
-      </c>
-      <c r="I2" s="54" t="s">
-        <v>398</v>
       </c>
       <c r="M2" s="51"/>
       <c r="N2" s="51"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="22" t="s">
         <v>401</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>402</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>403</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>404</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>60</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -3262,24 +3258,24 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="12"/>
@@ -3288,39 +3284,39 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N4" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="D5" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="12"/>
@@ -3329,39 +3325,39 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="N5" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="O5" s="12" t="s">
+      <c r="P5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="D6" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="12"/>
@@ -3370,39 +3366,39 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="N6" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="P6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="12"/>
@@ -3411,39 +3407,39 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N7" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="P7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="12"/>
@@ -3452,39 +3448,39 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="N8" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O8" s="12" t="s">
+      <c r="P8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="28.7">
+    </row>
+    <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="12"/>
@@ -3493,105 +3489,105 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="O9" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="N9" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="O9" s="16" t="s">
+      <c r="P9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" s="50" t="s">
         <v>422</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="43" customFormat="1" ht="28.7">
-      <c r="A10" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>423</v>
-      </c>
       <c r="D10" s="50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E10" s="51"/>
       <c r="F10" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="G10" s="53" t="s">
         <v>424</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="I10" s="54" t="s">
         <v>425</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>426</v>
       </c>
       <c r="M10" s="51"/>
       <c r="N10" s="51"/>
     </row>
-    <row r="11" spans="1:17" ht="57.4">
+    <row r="11" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F11" t="s">
         <v>427</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="G11" s="21" t="s">
         <v>428</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>429</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K11" t="s">
         <v>60</v>
       </c>
       <c r="L11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12" t="s">
         <v>427</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F12" t="s">
-        <v>428</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="12"/>
@@ -3600,39 +3596,39 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N12" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="P12" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C13" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" t="s">
         <v>427</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F13" t="s">
-        <v>428</v>
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="12"/>
@@ -3641,227 +3637,227 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="N13" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="O13" s="12" t="s">
+      <c r="P13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="P13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F14" t="s">
         <v>427</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F14" t="s">
-        <v>428</v>
       </c>
       <c r="G14" s="21"/>
       <c r="I14" s="9"/>
       <c r="M14" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="P14" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Q14" s="12"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C15" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F15" t="s">
         <v>427</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F15" t="s">
-        <v>428</v>
       </c>
       <c r="G15" s="21"/>
       <c r="I15" s="9"/>
       <c r="M15" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="N15" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="O15" s="12" t="s">
+      <c r="P15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="P15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C16" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F16" t="s">
         <v>427</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F16" t="s">
-        <v>428</v>
       </c>
       <c r="G16" s="21"/>
       <c r="I16" s="11"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="M16" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N16" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="O16" s="12" t="s">
+      <c r="P16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="P16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17" t="s">
         <v>427</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F17" t="s">
-        <v>428</v>
       </c>
       <c r="G17" s="21"/>
       <c r="I17" s="9"/>
       <c r="M17" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="N17" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O17" s="12" t="s">
+      <c r="P17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="28.7">
+    </row>
+    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C18" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" t="s">
         <v>438</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="G18" s="21" t="s">
         <v>439</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>440</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K18" t="s">
         <v>60</v>
       </c>
       <c r="L18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F19" t="s">
         <v>438</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F19" t="s">
-        <v>439</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="12"/>
@@ -3870,39 +3866,39 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="O19" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N19" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="P19" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F20" t="s">
         <v>438</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F20" t="s">
-        <v>439</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="12"/>
@@ -3911,227 +3907,227 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="N20" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="O20" s="12" t="s">
+      <c r="P20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="P20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C21" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F21" t="s">
         <v>438</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F21" t="s">
-        <v>439</v>
       </c>
       <c r="G21" s="21"/>
       <c r="I21" s="9"/>
       <c r="M21" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="O21" s="12" t="s">
         <v>443</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>444</v>
       </c>
       <c r="P21" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C22" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F22" t="s">
         <v>438</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F22" t="s">
-        <v>439</v>
       </c>
       <c r="G22" s="21"/>
       <c r="I22" s="9"/>
       <c r="M22" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="O22" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="N22" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="O22" s="12" t="s">
+      <c r="P22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="P22" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q22" s="12" t="s">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>399</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="D23" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F23" t="s">
         <v>438</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F23" t="s">
-        <v>439</v>
       </c>
       <c r="G23" s="21"/>
       <c r="I23" s="11"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="M23" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="O23" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N23" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="O23" s="12" t="s">
+      <c r="P23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="P23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C24" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F24" t="s">
         <v>438</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F24" t="s">
-        <v>439</v>
       </c>
       <c r="G24" s="21"/>
       <c r="I24" s="9"/>
       <c r="M24" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="O24" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="N24" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O24" s="12" t="s">
+      <c r="P24" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="P24" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="28.7">
+    </row>
+    <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C25" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F25" t="s">
+        <v>536</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>445</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F25" t="s">
-        <v>446</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>447</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K25" t="s">
         <v>60</v>
       </c>
       <c r="L25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F26" t="s">
-        <v>446</v>
+        <v>536</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="12"/>
@@ -4140,39 +4136,39 @@
       <c r="K26" s="12"/>
       <c r="L26" s="12"/>
       <c r="M26" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N26" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="P26" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F27" t="s">
-        <v>446</v>
+        <v>536</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="12"/>
@@ -4181,227 +4177,227 @@
       <c r="K27" s="12"/>
       <c r="L27" s="12"/>
       <c r="M27" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="O27" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="N27" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="O27" s="12" t="s">
+      <c r="P27" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="P27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F28" t="s">
-        <v>446</v>
+        <v>536</v>
       </c>
       <c r="G28" s="22"/>
       <c r="I28" s="9"/>
       <c r="M28" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="O28" s="12" t="s">
         <v>443</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>444</v>
       </c>
       <c r="P28" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F29" t="s">
-        <v>446</v>
+        <v>536</v>
       </c>
       <c r="G29" s="22"/>
       <c r="I29" s="9"/>
       <c r="M29" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="N29" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="N29" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>436</v>
-      </c>
       <c r="P29" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F30" t="s">
-        <v>446</v>
+        <v>536</v>
       </c>
       <c r="G30" s="22"/>
       <c r="I30" s="11"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="M30" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N30" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="O30" s="12" t="s">
+      <c r="P30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="P30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F31" t="s">
-        <v>446</v>
+        <v>536</v>
       </c>
       <c r="G31" s="22"/>
       <c r="I31" s="9"/>
       <c r="M31" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="N31" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O31" s="12" t="s">
+      <c r="P31" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="P31" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" ht="28.7">
+    </row>
+    <row r="32" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F32" t="s">
+        <v>450</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>451</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F32" t="s">
-        <v>452</v>
-      </c>
-      <c r="G32" s="22" t="s">
-        <v>453</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J32" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K32" t="s">
         <v>60</v>
       </c>
       <c r="L32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="12"/>
@@ -4410,39 +4406,39 @@
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
       <c r="M33" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="O33" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N33" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="P33" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="12"/>
@@ -4451,227 +4447,227 @@
       <c r="K34" s="12"/>
       <c r="L34" s="12"/>
       <c r="M34" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N34" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="O34" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="N34" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="O34" s="12" t="s">
+      <c r="P34" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="P34" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q34" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G35" s="22"/>
       <c r="I35" s="9"/>
       <c r="M35" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="O35" s="12" t="s">
         <v>443</v>
-      </c>
-      <c r="N35" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>444</v>
       </c>
       <c r="P35" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Q35" s="12"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G36" s="22"/>
       <c r="I36" s="9"/>
       <c r="M36" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="N36" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="O36" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="N36" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="O36" s="12" t="s">
+      <c r="P36" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="P36" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F37" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G37" s="22"/>
       <c r="I37" s="11"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="M37" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="O37" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N37" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="O37" s="12" t="s">
+      <c r="P37" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="P37" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G38" s="22"/>
       <c r="I38" s="9"/>
       <c r="M38" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N38" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="O38" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="N38" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O38" s="12" t="s">
+      <c r="P38" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="P38" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q38" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" ht="57.4">
+    </row>
+    <row r="39" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C39" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>456</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F39" t="s">
-        <v>457</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>458</v>
       </c>
       <c r="H39" t="s">
         <v>22</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J39" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K39" t="s">
         <v>60</v>
       </c>
       <c r="L39" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="12"/>
@@ -4680,39 +4676,39 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N40" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="O40" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N40" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="P40" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F41" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G41" s="22"/>
       <c r="H41" s="12"/>
@@ -4721,39 +4717,39 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="O41" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="N41" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="O41" s="12" t="s">
+      <c r="P41" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q41" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="P41" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q41" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="12"/>
@@ -4762,37 +4758,37 @@
       <c r="K42" s="12"/>
       <c r="L42" s="12"/>
       <c r="M42" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="N42" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="O42" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="N42" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="P42" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Q42" s="12"/>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F43" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G43" s="22"/>
       <c r="H43" s="12"/>
@@ -4801,155 +4797,155 @@
       <c r="K43" s="12"/>
       <c r="L43" s="12"/>
       <c r="M43" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="N43" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="O43" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="N43" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="O43" s="12" t="s">
+      <c r="P43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="P43" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F44" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G44" s="22"/>
       <c r="I44" s="11"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="M44" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N44" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="O44" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N44" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="O44" s="12" t="s">
+      <c r="P44" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q44" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="P44" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F45" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G45" s="22"/>
       <c r="I45" s="9"/>
       <c r="M45" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N45" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="O45" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="N45" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O45" s="12" t="s">
+      <c r="P45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="P45" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" ht="57.4">
+    </row>
+    <row r="46" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C46" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F46" t="s">
+        <v>460</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>461</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>461</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F46" t="s">
-        <v>462</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>463</v>
       </c>
       <c r="H46" t="s">
         <v>22</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J46" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K46" t="s">
         <v>60</v>
       </c>
       <c r="L46" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F47" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G47" s="22"/>
       <c r="H47" s="12"/>
@@ -4958,39 +4954,39 @@
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N47" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="O47" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N47" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="P47" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F48" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G48" s="22"/>
       <c r="H48" s="12"/>
@@ -4999,39 +4995,39 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N48" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="O48" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="N48" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="O48" s="12" t="s">
+      <c r="P48" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q48" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="P48" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q48" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F49" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="12"/>
@@ -5040,37 +5036,37 @@
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
       <c r="M49" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="N49" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="O49" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="N49" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="P49" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G50" s="22"/>
       <c r="H50" s="12"/>
@@ -5079,155 +5075,155 @@
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
       <c r="M50" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="N50" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="O50" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="N50" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="O50" s="12" t="s">
-        <v>436</v>
-      </c>
       <c r="P50" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q50" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G51" s="22"/>
       <c r="I51" s="11"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
       <c r="M51" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N51" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="O51" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N51" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="O51" s="12" t="s">
+      <c r="P51" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q51" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="P51" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q51" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F52" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G52" s="22"/>
       <c r="I52" s="9"/>
       <c r="M52" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N52" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="O52" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="N52" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O52" s="12" t="s">
+      <c r="P52" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q52" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="P52" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q52" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="57.4">
+    </row>
+    <row r="53" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C53" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F53" t="s">
+        <v>465</v>
+      </c>
+      <c r="G53" s="22" t="s">
         <v>466</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F53" t="s">
-        <v>467</v>
-      </c>
-      <c r="G53" s="22" t="s">
-        <v>468</v>
       </c>
       <c r="H53" t="s">
         <v>22</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J53" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K53" t="s">
         <v>60</v>
       </c>
       <c r="L53" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F54" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G54" s="22"/>
       <c r="H54" s="12"/>
@@ -5236,39 +5232,39 @@
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="O54" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N54" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="P54" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q54" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F55" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G55" s="22"/>
       <c r="H55" s="12"/>
@@ -5277,39 +5273,39 @@
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N55" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="O55" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="N55" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="O55" s="12" t="s">
+      <c r="P55" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q55" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="P55" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q55" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F56" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G56" s="22"/>
       <c r="H56" s="12"/>
@@ -5318,37 +5314,37 @@
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="N56" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="O56" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="N56" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="O56" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="P56" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Q56" s="12"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F57" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G57" s="22"/>
       <c r="H57" s="12"/>
@@ -5357,153 +5353,153 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="N57" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="O57" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="N57" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="O57" s="12" t="s">
-        <v>436</v>
-      </c>
       <c r="P57" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q57" s="12" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F58" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G58" s="22"/>
       <c r="I58" s="11"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="M58" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N58" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="O58" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N58" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="O58" s="12" t="s">
+      <c r="P58" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="P58" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q58" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F59" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G59" s="22"/>
       <c r="I59" s="9"/>
       <c r="M59" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N59" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="O59" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="N59" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O59" s="12" t="s">
+      <c r="P59" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q59" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="P59" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q59" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="42.95">
+    </row>
+    <row r="60" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F60" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G60" s="22"/>
       <c r="H60" t="s">
         <v>22</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K60" t="s">
         <v>60</v>
       </c>
       <c r="L60" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F61" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G61" s="22"/>
       <c r="H61" s="12"/>
@@ -5512,39 +5508,39 @@
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
       <c r="M61" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N61" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="O61" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N61" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O61" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="P61" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q61" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F62" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G62" s="22"/>
       <c r="H62" s="12"/>
@@ -5553,39 +5549,39 @@
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
       <c r="M62" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N62" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="O62" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="N62" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="O62" s="12" t="s">
+      <c r="P62" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q62" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="P62" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q62" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F63" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G63" s="22"/>
       <c r="H63" s="12"/>
@@ -5594,37 +5590,37 @@
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
       <c r="M63" s="24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N63" s="24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P63" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Q63" s="12"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F64" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G64" s="22"/>
       <c r="H64" s="12"/>
@@ -5633,155 +5629,155 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
       <c r="M64" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="N64" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="O64" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="P64" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q64" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="N64" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="O64" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="P64" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q64" s="12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F65" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G65" s="22"/>
       <c r="I65" s="11"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="M65" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N65" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="O65" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N65" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="O65" s="12" t="s">
+      <c r="P65" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="P65" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q65" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F66" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G66" s="22"/>
       <c r="I66" s="9"/>
       <c r="M66" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N66" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="O66" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="N66" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O66" s="12" t="s">
+      <c r="P66" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q66" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="P66" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q66" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="57.4">
+    </row>
+    <row r="67" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C67" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="F67" t="s">
+        <v>481</v>
+      </c>
+      <c r="G67" s="22" t="s">
         <v>482</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="E67" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="F67" t="s">
-        <v>483</v>
-      </c>
-      <c r="G67" s="22" t="s">
-        <v>484</v>
       </c>
       <c r="H67" t="s">
         <v>22</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J67" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K67" t="s">
         <v>60</v>
       </c>
       <c r="L67" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F68" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G68" s="22"/>
       <c r="H68" s="12"/>
@@ -5790,39 +5786,39 @@
       <c r="K68" s="12"/>
       <c r="L68" s="12"/>
       <c r="M68" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="N68" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="O68" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="N68" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="O68" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="P68" s="12" t="s">
         <v>29</v>
       </c>
       <c r="Q68" s="12" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F69" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G69" s="22"/>
       <c r="H69" s="12"/>
@@ -5831,39 +5827,39 @@
       <c r="K69" s="12"/>
       <c r="L69" s="12"/>
       <c r="M69" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="N69" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="O69" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="N69" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="O69" s="12" t="s">
+      <c r="P69" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q69" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="P69" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q69" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F70" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G70" s="22"/>
       <c r="H70" s="12"/>
@@ -5872,37 +5868,37 @@
       <c r="K70" s="12"/>
       <c r="L70" s="12"/>
       <c r="M70" s="24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="N70" s="24" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="P70" s="12" t="s">
         <v>64</v>
       </c>
       <c r="Q70" s="12"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F71" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G71" s="22"/>
       <c r="H71" s="12"/>
@@ -5911,98 +5907,98 @@
       <c r="K71" s="12"/>
       <c r="L71" s="12"/>
       <c r="M71" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="N71" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="P71" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q71" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="N71" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="O71" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="P71" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q71" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F72" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G72" s="22"/>
       <c r="I72" s="11"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="M72" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="N72" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="O72" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="N72" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="O72" s="12" t="s">
+      <c r="P72" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q72" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="P72" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q72" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D73" s="24" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F73" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G73" s="22"/>
       <c r="I73" s="9"/>
       <c r="M73" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="N73" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="O73" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="N73" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="O73" s="12" t="s">
+      <c r="P73" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q73" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="P73" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q73" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -6012,7 +6008,7 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -6022,7 +6018,7 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6032,7 +6028,7 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6042,7 +6038,7 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6052,7 +6048,7 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -6062,7 +6058,7 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6072,7 +6068,7 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -6082,7 +6078,7 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6092,7 +6088,7 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6102,7 +6098,7 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6112,7 +6108,7 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -6122,7 +6118,7 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6132,7 +6128,7 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="14"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6142,7 +6138,7 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="14"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6152,7 +6148,7 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6162,7 +6158,7 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6172,7 +6168,7 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6182,7 +6178,7 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6192,7 +6188,7 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -6202,7 +6198,7 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -6212,7 +6208,7 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6222,7 +6218,7 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="14"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -6232,7 +6228,7 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="14"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -6242,7 +6238,7 @@
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="14"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -6252,7 +6248,7 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="14"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -6262,7 +6258,7 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -6272,7 +6268,7 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -6282,7 +6278,7 @@
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="14"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -6292,7 +6288,7 @@
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="14"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -6302,7 +6298,7 @@
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="14"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -6312,7 +6308,7 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="14"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -6322,7 +6318,7 @@
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -6332,7 +6328,7 @@
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="14"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -6538,7 +6534,7 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="14" customWidth="1"/>
@@ -6556,7 +6552,7 @@
     <col min="17" max="17" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6609,76 +6605,76 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="43" customFormat="1" ht="42.95">
+    <row r="2" spans="1:17" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>490</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>491</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>491</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>492</v>
       </c>
       <c r="G2" s="52"/>
       <c r="I2" s="47" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
     </row>
-    <row r="3" spans="1:17" ht="28.7">
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F3" t="s">
+        <v>493</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="F3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>496</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G4" s="12"/>
       <c r="M4" s="24" t="s">
@@ -6694,155 +6690,155 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G5" s="12"/>
       <c r="M5" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N5" s="24" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="P5" t="s">
         <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G6" s="12"/>
       <c r="M6" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="N6" s="24" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G7" s="12"/>
       <c r="M7" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="O7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="O7" t="s">
+      <c r="E8" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F8" t="s">
         <v>503</v>
       </c>
-      <c r="P7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="42.95">
-      <c r="A8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>490</v>
-      </c>
-      <c r="C8" s="24" t="s">
+      <c r="G8" t="s">
         <v>504</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="F8" t="s">
-        <v>505</v>
-      </c>
-      <c r="G8" t="s">
-        <v>506</v>
       </c>
       <c r="H8" t="s">
         <v>34</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M9" s="24" t="s">
         <v>277</v>
@@ -6857,152 +6853,152 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F10" t="s">
+        <v>503</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="N10" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="O10" t="s">
+        <v>497</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" t="s">
         <v>504</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="F10" t="s">
-        <v>505</v>
-      </c>
-      <c r="M10" s="24" t="s">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F11" t="s">
+        <v>503</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="N10" s="24" t="s">
+      <c r="N11" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O11" t="s">
         <v>499</v>
       </c>
-      <c r="P10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F12" t="s">
+        <v>503</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="N12" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="O12" t="s">
+        <v>501</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>490</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="F11" t="s">
-        <v>505</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="O11" t="s">
-        <v>501</v>
-      </c>
-      <c r="P11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>490</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="F12" t="s">
-        <v>505</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="O12" t="s">
-        <v>503</v>
-      </c>
-      <c r="P12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="28.7">
-      <c r="A13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>490</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F13" t="s">
+        <v>507</v>
+      </c>
+      <c r="G13" t="s">
         <v>508</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="F13" t="s">
-        <v>509</v>
-      </c>
-      <c r="G13" t="s">
-        <v>510</v>
       </c>
       <c r="H13" t="s">
         <v>34</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F14" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M14" s="24" t="s">
         <v>277</v>
@@ -7017,177 +7013,177 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C15" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" t="s">
+        <v>507</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="O15" t="s">
+        <v>497</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="s">
         <v>508</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="F15" t="s">
-        <v>509</v>
-      </c>
-      <c r="M15" s="24" t="s">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F16" t="s">
+        <v>507</v>
+      </c>
+      <c r="M16" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="N15" s="24" t="s">
+      <c r="N16" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="O15" t="s">
+      <c r="O16" t="s">
         <v>499</v>
       </c>
-      <c r="P15" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>488</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F17" t="s">
+        <v>507</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="O17" t="s">
+        <v>501</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>490</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="F16" t="s">
-        <v>509</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="O16" t="s">
-        <v>501</v>
-      </c>
-      <c r="P16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>490</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="F17" t="s">
-        <v>509</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="O17" t="s">
-        <v>503</v>
-      </c>
-      <c r="P17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="43" customFormat="1" ht="42.95">
-      <c r="A18" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="43" t="s">
+      <c r="C18" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="F18" s="43" t="s">
         <v>512</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="G18" s="43" t="s">
         <v>513</v>
       </c>
-      <c r="D18" s="50" t="s">
-        <v>513</v>
-      </c>
-      <c r="F18" s="43" t="s">
+      <c r="I18" s="47" t="s">
         <v>514</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>515</v>
-      </c>
-      <c r="I18" s="47" t="s">
-        <v>516</v>
       </c>
       <c r="M18" s="50"/>
       <c r="N18" s="50"/>
     </row>
-    <row r="19" spans="1:17" ht="42.95">
+    <row r="19" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="F19" t="s">
+        <v>516</v>
+      </c>
+      <c r="G19" t="s">
         <v>517</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F19" t="s">
-        <v>518</v>
-      </c>
-      <c r="G19" t="s">
-        <v>519</v>
       </c>
       <c r="H19" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F20" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M20" s="24" t="s">
         <v>277</v>
@@ -7202,149 +7198,149 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F21" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M21" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="O21" t="s">
+        <v>497</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>510</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="F22" t="s">
+        <v>516</v>
+      </c>
+      <c r="M22" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N22" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="O21" t="s">
+      <c r="O22" t="s">
         <v>499</v>
       </c>
-      <c r="P21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>512</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F22" t="s">
-        <v>518</v>
-      </c>
-      <c r="M22" s="24" t="s">
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>510</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="F23" t="s">
+        <v>516</v>
+      </c>
+      <c r="M23" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="N22" s="24" t="s">
+      <c r="N23" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O23" t="s">
         <v>501</v>
       </c>
-      <c r="P22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>512</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F23" t="s">
-        <v>518</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="O23" t="s">
-        <v>503</v>
-      </c>
       <c r="P23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="28.7">
+    <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F24" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H24" t="s">
         <v>34</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F25" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M25" s="24" t="s">
         <v>277</v>
@@ -7359,149 +7355,149 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F26" t="s">
+        <v>520</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="N26" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="O26" t="s">
+        <v>497</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>510</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="F27" t="s">
+        <v>520</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="O27" t="s">
+        <v>499</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>510</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="F28" t="s">
+        <v>520</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="O28" t="s">
+        <v>501</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>510</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="M26" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="O26" t="s">
-        <v>499</v>
-      </c>
-      <c r="P26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q26" t="s">
+      <c r="D29" s="24" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" t="s">
-        <v>512</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F27" t="s">
-        <v>522</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="N27" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="O27" t="s">
-        <v>501</v>
-      </c>
-      <c r="P27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>512</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>521</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F28" t="s">
-        <v>522</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="N28" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="O28" t="s">
-        <v>503</v>
-      </c>
-      <c r="P28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="28.7">
-      <c r="A29" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>512</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>524</v>
-      </c>
       <c r="E29" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F29" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H29" t="s">
         <v>34</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F30" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M30" s="24" t="s">
         <v>277</v>
@@ -7516,100 +7512,100 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F31" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M31" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="N31" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="O31" t="s">
+        <v>497</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>510</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="F32" t="s">
+        <v>523</v>
+      </c>
+      <c r="M32" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="N31" s="24" t="s">
+      <c r="N32" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="O31" t="s">
+      <c r="O32" t="s">
         <v>499</v>
       </c>
-      <c r="P31" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>512</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F32" t="s">
-        <v>525</v>
-      </c>
-      <c r="M32" s="24" t="s">
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>510</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="F33" t="s">
+        <v>523</v>
+      </c>
+      <c r="M33" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="N32" s="24" t="s">
+      <c r="N33" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="O32" t="s">
+      <c r="O33" t="s">
         <v>501</v>
-      </c>
-      <c r="P32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" t="s">
-        <v>512</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>513</v>
-      </c>
-      <c r="F33" t="s">
-        <v>525</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="N33" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="O33" t="s">
-        <v>503</v>
       </c>
       <c r="P33" t="s">
         <v>29</v>
@@ -7722,7 +7718,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
@@ -7731,26 +7727,26 @@
     <col min="5" max="5" width="55.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="72" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="72" customFormat="1">
-      <c r="A2" s="56" t="s">
+      <c r="C2" s="93" t="s">
         <v>529</v>
       </c>
-      <c r="B2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C2" s="93" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="56" customFormat="1">
+    </row>
+    <row r="3" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>89</v>
       </c>
@@ -7758,15 +7754,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="56" customFormat="1">
+    <row r="4" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="56" customFormat="1">
+    <row r="5" spans="1:3" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>181</v>
       </c>
@@ -7774,7 +7770,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>178</v>
       </c>
@@ -7782,26 +7778,26 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" t="s">
+        <v>532</v>
+      </c>
+      <c r="C9" t="s">
         <v>533</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>531</v>
+      </c>
+      <c r="B10" t="s">
         <v>534</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>533</v>
-      </c>
-      <c r="B10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C10" t="s">
-        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -7818,7 +7814,7 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
@@ -7834,7 +7830,7 @@
     <col min="17" max="17" width="109" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="28.7">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -7887,7 +7883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="43" customFormat="1">
+    <row r="2" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
         <v>17</v>
       </c>
@@ -7922,7 +7918,7 @@
       <c r="R2" s="67"/>
       <c r="S2" s="67"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -7963,7 +7959,7 @@
       <c r="N3" s="64"/>
       <c r="S3" s="65"/>
     </row>
-    <row r="4" spans="1:19" ht="15.4" customHeight="1">
+    <row r="4" spans="1:19" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
@@ -7996,7 +7992,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -8067,7 +8063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
@@ -8102,7 +8098,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -8178,7 +8174,7 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="19" customWidth="1"/>
     <col min="2" max="2" width="68" style="2" customWidth="1"/>
@@ -8199,7 +8195,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="26" customFormat="1" ht="28.7">
+    <row r="1" spans="1:18" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -8255,7 +8251,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.4" customHeight="1">
+    <row r="2" spans="1:18" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>17</v>
       </c>
@@ -8286,7 +8282,7 @@
       <c r="J2" s="17"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:18" s="5" customFormat="1">
+    <row r="3" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>17</v>
       </c>
@@ -8320,7 +8316,7 @@
       </c>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:18" s="5" customFormat="1">
+    <row r="4" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>17</v>
       </c>
@@ -8354,7 +8350,7 @@
       </c>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" spans="1:18" s="5" customFormat="1">
+    <row r="5" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>17</v>
       </c>
@@ -8388,7 +8384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="5" customFormat="1">
+    <row r="6" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
@@ -8424,7 +8420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.4" customHeight="1">
+    <row r="7" spans="1:18" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
@@ -8455,7 +8451,7 @@
       <c r="J7" s="17"/>
       <c r="K7" s="10"/>
     </row>
-    <row r="8" spans="1:18" s="5" customFormat="1">
+    <row r="8" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>17</v>
       </c>
@@ -8489,7 +8485,7 @@
       </c>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:18" s="5" customFormat="1">
+    <row r="9" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>17</v>
       </c>
@@ -8523,7 +8519,7 @@
       </c>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:18" s="5" customFormat="1">
+    <row r="10" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -8559,7 +8555,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="5" customFormat="1">
+    <row r="11" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>17</v>
       </c>
@@ -8595,7 +8591,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.4" customHeight="1">
+    <row r="12" spans="1:18" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>17</v>
       </c>
@@ -8626,7 +8622,7 @@
       <c r="J12" s="17"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="5" customFormat="1">
+    <row r="13" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
@@ -8660,7 +8656,7 @@
       </c>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:18" s="5" customFormat="1">
+    <row r="14" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>17</v>
       </c>
@@ -8694,7 +8690,7 @@
       </c>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:18" s="5" customFormat="1">
+    <row r="15" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>17</v>
       </c>
@@ -8728,7 +8724,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="5" customFormat="1">
+    <row r="16" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>17</v>
       </c>
@@ -8764,7 +8760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.4" customHeight="1">
+    <row r="17" spans="1:19" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>17</v>
       </c>
@@ -8795,7 +8791,7 @@
       <c r="J17" s="17"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:19" s="5" customFormat="1">
+    <row r="18" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
@@ -8829,7 +8825,7 @@
       </c>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:19" s="5" customFormat="1">
+    <row r="19" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>17</v>
       </c>
@@ -8863,7 +8859,7 @@
       </c>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:19" s="5" customFormat="1">
+    <row r="20" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>17</v>
       </c>
@@ -8897,7 +8893,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="5" customFormat="1">
+    <row r="21" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>17</v>
       </c>
@@ -8933,7 +8929,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.4" customHeight="1">
+    <row r="22" spans="1:19" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>17</v>
       </c>
@@ -8964,7 +8960,7 @@
       <c r="J22" s="17"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="5" customFormat="1">
+    <row r="23" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>17</v>
       </c>
@@ -8998,7 +8994,7 @@
       </c>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:19" s="5" customFormat="1">
+    <row r="24" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>17</v>
       </c>
@@ -9032,7 +9028,7 @@
       </c>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" spans="1:19" s="5" customFormat="1">
+    <row r="25" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>17</v>
       </c>
@@ -9068,7 +9064,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="5" customFormat="1">
+    <row r="26" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
         <v>17</v>
       </c>
@@ -9104,7 +9100,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="28.7">
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>17</v>
       </c>
@@ -9143,7 +9139,7 @@
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>17</v>
       </c>
@@ -9184,7 +9180,7 @@
       <c r="R28" s="31"/>
       <c r="S28" s="31"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>17</v>
       </c>
@@ -9225,7 +9221,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>17</v>
       </c>
@@ -9268,7 +9264,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>17</v>
       </c>
@@ -9311,7 +9307,7 @@
       <c r="R31" s="31"/>
       <c r="S31" s="31"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>17</v>
       </c>
@@ -9350,7 +9346,7 @@
       <c r="R32" s="31"/>
       <c r="S32" s="34"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>17</v>
       </c>
@@ -9391,7 +9387,7 @@
       <c r="R33" s="31"/>
       <c r="S33" s="34"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>17</v>
       </c>
@@ -9432,7 +9428,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="34"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>17</v>
       </c>
@@ -9475,7 +9471,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="34"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>17</v>
       </c>
@@ -9518,7 +9514,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="34"/>
     </row>
-    <row r="37" spans="1:19" ht="28.7">
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>17</v>
       </c>
@@ -9557,7 +9553,7 @@
       <c r="R37" s="34"/>
       <c r="S37" s="34"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>17</v>
       </c>
@@ -9597,7 +9593,7 @@
       <c r="R38" s="34"/>
       <c r="S38" s="34"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>17</v>
       </c>
@@ -9637,7 +9633,7 @@
       <c r="R39" s="34"/>
       <c r="S39" s="34"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>17</v>
       </c>
@@ -9679,7 +9675,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>17</v>
       </c>
@@ -9721,7 +9717,7 @@
       <c r="R41" s="31"/>
       <c r="S41" s="34"/>
     </row>
-    <row r="42" spans="1:19" s="75" customFormat="1" ht="28.7">
+    <row r="42" spans="1:19" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>17</v>
       </c>
@@ -9750,7 +9746,7 @@
       <c r="P42" s="74"/>
       <c r="Q42" s="74"/>
     </row>
-    <row r="43" spans="1:19" ht="15.4" customHeight="1">
+    <row r="43" spans="1:19" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>17</v>
       </c>
@@ -9781,7 +9777,7 @@
       <c r="J43" s="17"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:19" s="5" customFormat="1">
+    <row r="44" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>17</v>
       </c>
@@ -9815,7 +9811,7 @@
       </c>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" spans="1:19" s="5" customFormat="1">
+    <row r="45" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>17</v>
       </c>
@@ -9851,7 +9847,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.4" customHeight="1">
+    <row r="46" spans="1:19" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>17</v>
       </c>
@@ -9882,7 +9878,7 @@
       <c r="J46" s="17"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:19" s="5" customFormat="1">
+    <row r="47" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
         <v>17</v>
       </c>
@@ -9916,7 +9912,7 @@
       </c>
       <c r="Q47" s="10"/>
     </row>
-    <row r="48" spans="1:19" s="5" customFormat="1">
+    <row r="48" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>17</v>
       </c>
@@ -9950,7 +9946,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="5" customFormat="1">
+    <row r="49" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>17</v>
       </c>
@@ -9986,7 +9982,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="75" customFormat="1" ht="28.7">
+    <row r="50" spans="1:18" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="73" t="s">
         <v>17</v>
       </c>
@@ -10013,7 +10009,7 @@
       <c r="P50" s="74"/>
       <c r="Q50" s="74"/>
     </row>
-    <row r="51" spans="1:18" s="5" customFormat="1">
+    <row r="51" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>17</v>
       </c>
@@ -10051,7 +10047,7 @@
       <c r="Q51" s="37"/>
       <c r="R51" s="37"/>
     </row>
-    <row r="52" spans="1:18" s="5" customFormat="1">
+    <row r="52" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>17</v>
       </c>
@@ -10091,7 +10087,7 @@
       <c r="Q52" s="37"/>
       <c r="R52" s="37"/>
     </row>
-    <row r="53" spans="1:18" ht="15.4" customHeight="1">
+    <row r="53" spans="1:18" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>17</v>
       </c>
@@ -10129,7 +10125,7 @@
       <c r="Q53" s="37"/>
       <c r="R53" s="37"/>
     </row>
-    <row r="54" spans="1:18" s="5" customFormat="1">
+    <row r="54" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>17</v>
       </c>
@@ -10171,7 +10167,7 @@
       </c>
       <c r="R54" s="37"/>
     </row>
-    <row r="55" spans="1:18" s="75" customFormat="1">
+    <row r="55" spans="1:18" s="75" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="73" t="s">
         <v>17</v>
       </c>
@@ -10198,7 +10194,7 @@
       <c r="P55" s="74"/>
       <c r="Q55" s="74"/>
     </row>
-    <row r="56" spans="1:18" s="5" customFormat="1">
+    <row r="56" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>17</v>
       </c>
@@ -10236,7 +10232,7 @@
       <c r="Q56" s="37"/>
       <c r="R56" s="37"/>
     </row>
-    <row r="57" spans="1:18" s="5" customFormat="1">
+    <row r="57" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>17</v>
       </c>
@@ -10276,7 +10272,7 @@
       <c r="Q57" s="37"/>
       <c r="R57" s="37"/>
     </row>
-    <row r="58" spans="1:18" s="5" customFormat="1">
+    <row r="58" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>17</v>
       </c>
@@ -10314,7 +10310,7 @@
       <c r="Q58" s="37"/>
       <c r="R58" s="37"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
         <v>17</v>
       </c>
@@ -10356,7 +10352,7 @@
       </c>
       <c r="R59" s="37"/>
     </row>
-    <row r="60" spans="1:18" ht="28.7">
+    <row r="60" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
         <v>17</v>
       </c>
@@ -10390,7 +10386,7 @@
       <c r="Q60" s="37"/>
       <c r="R60" s="37"/>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>17</v>
       </c>
@@ -10426,7 +10422,7 @@
       <c r="Q61" s="37"/>
       <c r="R61" s="37"/>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
         <v>17</v>
       </c>
@@ -10462,7 +10458,7 @@
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>17</v>
       </c>
@@ -10500,7 +10496,7 @@
       </c>
       <c r="R63" s="37"/>
     </row>
-    <row r="64" spans="1:18" ht="42.95">
+    <row r="64" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>17</v>
       </c>
@@ -10544,7 +10540,7 @@
       <c r="Q64" s="37"/>
       <c r="R64" s="37"/>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>17</v>
       </c>
@@ -10584,7 +10580,7 @@
       <c r="Q65" s="37"/>
       <c r="R65" s="37"/>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>17</v>
       </c>
@@ -10626,7 +10622,7 @@
       </c>
       <c r="R66" s="37"/>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>17</v>
       </c>
@@ -10885,7 +10881,7 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
@@ -10904,7 +10900,7 @@
     <col min="17" max="17" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="41" customFormat="1">
+    <row r="1" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
@@ -10957,7 +10953,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="79" customFormat="1">
+    <row r="2" spans="1:17" s="79" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>17</v>
       </c>
@@ -10982,7 +10978,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="52" customFormat="1">
+    <row r="3" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
         <v>17</v>
       </c>
@@ -11005,7 +11001,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>17</v>
       </c>
@@ -11034,7 +11030,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="58" customFormat="1">
+    <row r="5" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
         <v>17</v>
       </c>
@@ -11075,7 +11071,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="58" customFormat="1">
+    <row r="6" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>17</v>
       </c>
@@ -11116,7 +11112,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="58" customFormat="1">
+    <row r="7" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>17</v>
       </c>
@@ -11157,7 +11153,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="58" customFormat="1">
+    <row r="8" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="s">
         <v>17</v>
       </c>
@@ -11198,7 +11194,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="58" customFormat="1">
+    <row r="9" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
         <v>17</v>
       </c>
@@ -11239,7 +11235,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="58" customFormat="1">
+    <row r="10" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
         <v>17</v>
       </c>
@@ -11280,7 +11276,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="71" t="s">
         <v>17</v>
       </c>
@@ -11312,7 +11308,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="71" t="s">
         <v>17</v>
       </c>
@@ -11353,7 +11349,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
         <v>17</v>
       </c>
@@ -11391,7 +11387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="71" t="s">
         <v>17</v>
       </c>
@@ -11432,7 +11428,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="71" t="s">
         <v>17</v>
       </c>
@@ -11473,7 +11469,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="71" t="s">
         <v>17</v>
       </c>
@@ -11514,7 +11510,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="71" t="s">
         <v>17</v>
       </c>
@@ -11555,7 +11551,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="71" t="s">
         <v>17</v>
       </c>
@@ -11596,7 +11592,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="58" customFormat="1">
+    <row r="19" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="71" t="s">
         <v>17</v>
       </c>
@@ -11628,7 +11624,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:17" s="58" customFormat="1">
+    <row r="20" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="71" t="s">
         <v>17</v>
       </c>
@@ -11669,7 +11665,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="58" customFormat="1">
+    <row r="21" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="71" t="s">
         <v>17</v>
       </c>
@@ -11710,7 +11706,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="58" customFormat="1">
+    <row r="22" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="71" t="s">
         <v>17</v>
       </c>
@@ -11751,7 +11747,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="58" customFormat="1">
+    <row r="23" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="71" t="s">
         <v>17</v>
       </c>
@@ -11873,7 +11869,7 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
@@ -11892,7 +11888,7 @@
     <col min="17" max="17" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="48" customFormat="1">
+    <row r="1" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -11945,7 +11941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="43" customFormat="1">
+    <row r="2" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>17</v>
       </c>
@@ -11966,7 +11962,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="100.35">
+    <row r="3" spans="1:17" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>17</v>
       </c>
@@ -11995,7 +11991,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
@@ -12027,7 +12023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
@@ -12059,7 +12055,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -12091,7 +12087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
@@ -12123,7 +12119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -12158,7 +12154,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -12193,7 +12189,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -12228,7 +12224,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -12263,7 +12259,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -12298,7 +12294,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
@@ -12333,7 +12329,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
@@ -12368,7 +12364,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
@@ -12430,7 +12426,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
@@ -12442,7 +12438,7 @@
     <col min="15" max="15" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="48" customFormat="1">
+    <row r="1" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -12495,7 +12491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="43" customFormat="1">
+    <row r="2" spans="1:17" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>17</v>
       </c>
@@ -12515,7 +12511,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="28.7">
+    <row r="3" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -12544,7 +12540,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -12577,7 +12573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -12610,7 +12606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -12643,7 +12639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -12676,7 +12672,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -12712,7 +12708,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -12779,13 +12775,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563E102B-33E4-478E-B166-9158413B6D66}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
       <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
@@ -12803,7 +12799,7 @@
     <col min="17" max="17" width="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="48" customFormat="1">
+    <row r="1" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -12856,7 +12852,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="79" customFormat="1" ht="57.4">
+    <row r="2" spans="1:17" s="79" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>17</v>
       </c>
@@ -12880,7 +12876,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="43" customFormat="1" ht="28.7">
+    <row r="3" spans="1:17" s="43" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="s">
         <v>17</v>
       </c>
@@ -12906,7 +12902,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="28.7">
+    <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
@@ -12935,7 +12931,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
@@ -12952,27 +12948,27 @@
         <v>299</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G5" s="9"/>
       <c r="I5" s="9"/>
       <c r="M5" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="O5" t="s">
         <v>309</v>
       </c>
-      <c r="N5" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
         <v>310</v>
       </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
@@ -12989,22 +12985,22 @@
         <v>299</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M6" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="O6" t="s">
         <v>312</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="O6" t="s">
-        <v>313</v>
-      </c>
       <c r="P6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
@@ -13021,22 +13017,22 @@
         <v>299</v>
       </c>
       <c r="F7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M7" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="O7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="O7" t="s">
-        <v>315</v>
-      </c>
       <c r="P7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -13053,22 +13049,22 @@
         <v>299</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M8" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="O8" t="s">
         <v>316</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="O8" t="s">
-        <v>317</v>
-      </c>
       <c r="P8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -13085,16 +13081,16 @@
         <v>299</v>
       </c>
       <c r="F9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M9" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="O9" t="s">
         <v>318</v>
-      </c>
-      <c r="N9" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="O9" t="s">
-        <v>319</v>
       </c>
       <c r="P9" t="s">
         <v>88</v>
@@ -13103,7 +13099,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -13120,16 +13116,16 @@
         <v>299</v>
       </c>
       <c r="F10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="O10" t="s">
         <v>320</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="O10" t="s">
-        <v>321</v>
       </c>
       <c r="P10" t="s">
         <v>88</v>
@@ -13138,7 +13134,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -13155,22 +13151,22 @@
         <v>299</v>
       </c>
       <c r="F11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M11" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="O11" t="s">
         <v>322</v>
       </c>
-      <c r="N11" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="O11" t="s">
-        <v>323</v>
-      </c>
       <c r="P11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -13187,22 +13183,22 @@
         <v>299</v>
       </c>
       <c r="F12" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M12" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="O12" t="s">
         <v>324</v>
       </c>
-      <c r="N12" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="O12" t="s">
-        <v>325</v>
-      </c>
       <c r="P12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
@@ -13219,25 +13215,25 @@
         <v>299</v>
       </c>
       <c r="F13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M13" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="O13" t="s">
         <v>326</v>
       </c>
-      <c r="N13" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" t="s">
         <v>327</v>
       </c>
-      <c r="P13" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
@@ -13254,25 +13250,25 @@
         <v>299</v>
       </c>
       <c r="F14" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M14" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="O14" t="s">
         <v>329</v>
       </c>
-      <c r="N14" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
         <v>330</v>
       </c>
-      <c r="P14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
@@ -13289,22 +13285,22 @@
         <v>299</v>
       </c>
       <c r="F15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M15" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="O15" t="s">
         <v>332</v>
       </c>
-      <c r="N15" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="O15" t="s">
-        <v>333</v>
-      </c>
       <c r="P15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
@@ -13321,25 +13317,25 @@
         <v>299</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M16" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="O16" t="s">
         <v>334</v>
       </c>
-      <c r="N16" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
         <v>335</v>
       </c>
-      <c r="P16" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
@@ -13356,92 +13352,92 @@
         <v>299</v>
       </c>
       <c r="F17" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M17" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="O17" t="s">
         <v>337</v>
       </c>
-      <c r="N17" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="s">
         <v>338</v>
       </c>
-      <c r="P17" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="28.7" customHeight="1">
+    </row>
+    <row r="18" spans="1:17" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="15"/>
       <c r="G18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E19" s="15"/>
       <c r="G19" s="9"/>
       <c r="I19" s="9"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E21" s="15"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E22" s="15"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E23" s="15"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E24" s="15"/>
       <c r="M24" s="15"/>
       <c r="N24" s="15"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E25" s="15"/>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E26" s="15"/>
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E28" s="15"/>
       <c r="M28" s="15"/>
       <c r="N28" s="15"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E30" s="15"/>
       <c r="M30" s="15"/>
       <c r="N30" s="15"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E31" s="15"/>
       <c r="M31" s="15"/>
       <c r="N31" s="15"/>
@@ -13502,7 +13498,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
@@ -13518,7 +13514,7 @@
     <col min="17" max="17" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="48" customFormat="1">
+    <row r="1" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -13571,172 +13567,172 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="43" customFormat="1">
+    <row r="2" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="44" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="D2" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="43" t="s">
+      <c r="I2" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="I2" s="43" t="s">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" t="s">
         <v>345</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>346</v>
-      </c>
-      <c r="G3" t="s">
-        <v>347</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="M3" s="37"/>
       <c r="N3" s="37"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" t="s">
         <v>345</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="M4" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="O4" t="s">
+        <v>349</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" t="s">
         <v>345</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F4" t="s">
-        <v>346</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="O4" t="s">
-        <v>350</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="M5" s="15" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="N5" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D6" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" t="s">
         <v>345</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F5" t="s">
-        <v>346</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="M6" s="15" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="F6" t="s">
-        <v>346</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="N6" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="O6" t="s">
         <v>355</v>
       </c>
-      <c r="N6" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
         <v>356</v>
       </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="M7" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="O7" t="s">
         <v>358</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="O7" t="s">
-        <v>359</v>
       </c>
       <c r="P7" t="s">
         <v>29</v>
@@ -13780,7 +13776,7 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="98" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -13799,7 +13795,7 @@
     <col min="16" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="49" customFormat="1" ht="28.7">
+    <row r="1" spans="1:17" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
@@ -13852,90 +13848,90 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="47" customFormat="1" ht="42.95">
+    <row r="2" spans="1:17" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="96" t="s">
         <v>360</v>
       </c>
-      <c r="C2" s="96" t="s">
-        <v>361</v>
-      </c>
       <c r="D2" s="96" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E2" s="96"/>
       <c r="F2" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>363</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>364</v>
       </c>
       <c r="M2" s="97"/>
       <c r="N2" s="97"/>
     </row>
-    <row r="3" spans="1:17" ht="42.95">
+    <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="F3" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D3" s="99" t="s">
-        <v>365</v>
-      </c>
-      <c r="E3" s="99" t="s">
-        <v>361</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>367</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
     </row>
-    <row r="4" spans="1:17" ht="42.95">
+    <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="E4" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="F4" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="99" t="s">
-        <v>365</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>366</v>
-      </c>
       <c r="M4" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="N4" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="N4" s="99" t="s">
-        <v>369</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>88</v>
@@ -13944,33 +13940,33 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="42.95">
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="98" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="F5" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D5" s="99" t="s">
-        <v>365</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>361</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>366</v>
-      </c>
       <c r="M5" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="N5" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="N5" s="99" t="s">
-        <v>371</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>88</v>
@@ -13979,99 +13975,99 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="42.95">
+    <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="99" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="F6" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="99" t="s">
-        <v>365</v>
-      </c>
-      <c r="E6" s="99" t="s">
-        <v>361</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>366</v>
-      </c>
       <c r="M6" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="N6" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="N6" s="99" t="s">
-        <v>373</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" s="9" t="s">
+    </row>
+    <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" s="99" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="57.4">
-      <c r="A7" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="99" t="s">
+        <v>375</v>
+      </c>
+      <c r="E7" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="F7" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="99" t="s">
-        <v>376</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>361</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>378</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>34</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M7" s="38"/>
       <c r="N7" s="38"/>
     </row>
-    <row r="8" spans="1:17" ht="42.95">
+    <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="98" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" s="99" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="F8" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D8" s="99" t="s">
-        <v>376</v>
-      </c>
-      <c r="E8" s="99" t="s">
-        <v>361</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>377</v>
-      </c>
       <c r="M8" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="N8" s="99" t="s">
+        <v>368</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="N8" s="99" t="s">
-        <v>369</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>88</v>
@@ -14080,33 +14076,33 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="42.95">
+    <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>375</v>
+      </c>
+      <c r="E9" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="F9" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="99" t="s">
-        <v>376</v>
-      </c>
-      <c r="E9" s="99" t="s">
-        <v>361</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>377</v>
-      </c>
       <c r="M9" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="N9" s="99" t="s">
+        <v>370</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="N9" s="99" t="s">
-        <v>371</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="P9" s="9" t="s">
         <v>88</v>
@@ -14115,39 +14111,39 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="42.95">
+    <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>375</v>
+      </c>
+      <c r="D10" s="99" t="s">
+        <v>375</v>
+      </c>
+      <c r="E10" s="99" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="F10" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="99" t="s">
-        <v>376</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>361</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>377</v>
-      </c>
       <c r="M10" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="N10" s="99" t="s">
+        <v>372</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="N10" s="99" t="s">
-        <v>373</v>
-      </c>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -14206,6 +14202,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95a591a9c1d64a7009b5597c446bd65f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63634f6e381b5ed55a864cdabf38da8d" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -14430,23 +14435,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C7FF019-6E9E-4327-8A98-09E2F73626E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C7FF019-6E9E-4327-8A98-09E2F73626E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69987298-F94B-4FAE-824D-77320F34A719}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9663087D-43C0-4E56-A8DA-483B09F130B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9663087D-43C0-4E56-A8DA-483B09F130B4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69987298-F94B-4FAE-824D-77320F34A719}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/curation/BC_Package_2023_03_31.xlsx
+++ b/curation/BC_Package_2023_03_31.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7958748-A498-40A8-BE36-F0772AEAA29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2088E7-C248-4DF5-8BE8-134CE44089A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="6" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FA29263D-F7AA-4D0C-AE9B-6B008D3B18BE}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_DM" sheetId="27" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2926" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2930" uniqueCount="538">
   <si>
     <t>package_date</t>
   </si>
@@ -1678,12 +1678,15 @@
   <si>
     <t>Aggregate QTCF Interval</t>
   </si>
+  <si>
+    <t>C200249</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1793,13 +1796,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1874,7 +1870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2042,7 +2038,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2077,7 +2072,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2097,9 +2092,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2137,7 +2132,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2243,7 +2238,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2385,7 +2380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2870,10 +2865,10 @@
       <c r="I2" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
-      <c r="M2" s="100"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
@@ -2899,8 +2894,8 @@
       </c>
       <c r="H3" s="37"/>
       <c r="I3" s="38"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
       <c r="L3" s="37"/>
       <c r="M3" s="15" t="s">
         <v>277</v>
@@ -2936,8 +2931,8 @@
       </c>
       <c r="H4" s="37"/>
       <c r="I4" s="38"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
       <c r="L4" s="37"/>
       <c r="M4" s="15" t="s">
         <v>385</v>
@@ -2975,8 +2970,8 @@
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
       <c r="L5" s="37"/>
       <c r="M5" s="15" t="s">
         <v>388</v>
@@ -3012,8 +3007,8 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="38"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="100"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
       <c r="L6" s="37"/>
       <c r="M6" s="15" t="s">
         <v>390</v>
@@ -7742,7 +7737,7 @@
       <c r="B2" t="s">
         <v>528</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="92" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7884,7 +7879,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="90" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -8169,9 +8164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6575D01-805D-0E4D-89C4-3AB8EBDBFBB8}">
   <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10359,10 +10354,12 @@
       <c r="B60" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C60" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" s="81"/>
+      <c r="C60" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>537</v>
+      </c>
       <c r="E60" s="37"/>
       <c r="F60" s="37" t="s">
         <v>182</v>
@@ -10393,10 +10390,12 @@
       <c r="B61" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" s="81"/>
+      <c r="C61" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>537</v>
+      </c>
       <c r="E61" s="37"/>
       <c r="F61" s="37" t="s">
         <v>182</v>
@@ -10429,10 +10428,12 @@
       <c r="B62" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C62" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="D62" s="81"/>
+      <c r="C62" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>537</v>
+      </c>
       <c r="E62" s="37"/>
       <c r="F62" s="37" t="s">
         <v>182</v>
@@ -10465,10 +10466,12 @@
       <c r="B63" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C63" s="81" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="81"/>
+      <c r="C63" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>537</v>
+      </c>
       <c r="E63" s="37"/>
       <c r="F63" s="37" t="s">
         <v>182</v>
@@ -10901,7 +10904,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="41" t="s">
@@ -10954,7 +10957,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="77" t="s">
@@ -10979,7 +10982,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="52" t="s">
@@ -11889,7 +11892,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
@@ -11954,7 +11957,7 @@
       <c r="D2" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="86"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="43" t="s">
         <v>238</v>
       </c>
@@ -12439,7 +12442,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
@@ -12775,7 +12778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563E102B-33E4-478E-B166-9158413B6D66}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
@@ -12800,7 +12803,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
@@ -12853,7 +12856,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="79" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="91" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="79" t="s">
@@ -12866,13 +12869,13 @@
         <v>295</v>
       </c>
       <c r="E2" s="78"/>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="81" t="s">
         <v>296</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="81" t="s">
         <v>297</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="81" t="s">
         <v>298</v>
       </c>
     </row>
@@ -12883,10 +12886,10 @@
       <c r="B3" s="43" t="s">
         <v>294</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="82" t="s">
         <v>299</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="82" t="s">
         <v>299</v>
       </c>
       <c r="E3" s="44" t="s">
@@ -12909,13 +12912,13 @@
       <c r="B4" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F4" t="s">
@@ -12938,13 +12941,13 @@
       <c r="B5" t="s">
         <v>303</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F5" t="s">
@@ -12975,13 +12978,13 @@
       <c r="B6" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="83" t="s">
         <v>304</v>
       </c>
-      <c r="E6" s="85" t="s">
+      <c r="E6" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F6" t="s">
@@ -13013,7 +13016,7 @@
       <c r="D7" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F7" t="s">
@@ -13045,7 +13048,7 @@
       <c r="D8" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F8" t="s">
@@ -13077,7 +13080,7 @@
       <c r="D9" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F9" t="s">
@@ -13112,7 +13115,7 @@
       <c r="D10" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F10" t="s">
@@ -13147,7 +13150,7 @@
       <c r="D11" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F11" t="s">
@@ -13179,7 +13182,7 @@
       <c r="D12" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F12" t="s">
@@ -13211,7 +13214,7 @@
       <c r="D13" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F13" t="s">
@@ -13246,7 +13249,7 @@
       <c r="D14" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F14" t="s">
@@ -13281,7 +13284,7 @@
       <c r="D15" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="E15" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F15" t="s">
@@ -13313,7 +13316,7 @@
       <c r="D16" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F16" t="s">
@@ -13348,7 +13351,7 @@
       <c r="D17" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="85" t="s">
+      <c r="E17" s="84" t="s">
         <v>299</v>
       </c>
       <c r="F17" t="s">
@@ -13515,7 +13518,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48" t="s">
@@ -13778,7 +13781,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="98" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="97" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -13796,7 +13799,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="49" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="49" t="s">
@@ -13849,19 +13852,19 @@
       </c>
     </row>
     <row r="2" spans="1:17" s="47" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="96"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="47" t="s">
         <v>361</v>
       </c>
@@ -13871,23 +13874,23 @@
       <c r="I2" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
     </row>
     <row r="3" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="98" t="s">
         <v>360</v>
       </c>
       <c r="F3" s="9" t="s">
@@ -13906,28 +13909,28 @@
       <c r="N3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="98" t="s">
         <v>360</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="M4" s="99" t="s">
+      <c r="M4" s="98" t="s">
         <v>368</v>
       </c>
-      <c r="N4" s="99" t="s">
+      <c r="N4" s="98" t="s">
         <v>368</v>
       </c>
       <c r="O4" s="9" t="s">
@@ -13941,28 +13944,28 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="98" t="s">
         <v>360</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="M5" s="99" t="s">
+      <c r="M5" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="N5" s="99" t="s">
+      <c r="N5" s="98" t="s">
         <v>370</v>
       </c>
       <c r="O5" s="9" t="s">
@@ -13976,28 +13979,28 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="98" t="s">
         <v>364</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="98" t="s">
         <v>360</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="M6" s="99" t="s">
+      <c r="M6" s="98" t="s">
         <v>372</v>
       </c>
-      <c r="N6" s="99" t="s">
+      <c r="N6" s="98" t="s">
         <v>372</v>
       </c>
       <c r="O6" s="9" t="s">
@@ -14011,19 +14014,19 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="99" t="s">
+      <c r="D7" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="98" t="s">
         <v>360</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -14042,28 +14045,28 @@
       <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="98" t="s">
         <v>360</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="M8" s="99" t="s">
+      <c r="M8" s="98" t="s">
         <v>368</v>
       </c>
-      <c r="N8" s="99" t="s">
+      <c r="N8" s="98" t="s">
         <v>368</v>
       </c>
       <c r="O8" s="9" t="s">
@@ -14077,28 +14080,28 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="98" t="s">
         <v>360</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="M9" s="99" t="s">
+      <c r="M9" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="N9" s="99" t="s">
+      <c r="N9" s="98" t="s">
         <v>370</v>
       </c>
       <c r="O9" s="9" t="s">
@@ -14112,28 +14115,28 @@
       </c>
     </row>
     <row r="10" spans="1:17" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="97" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="98" t="s">
         <v>360</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="M10" s="99" t="s">
+      <c r="M10" s="98" t="s">
         <v>372</v>
       </c>
-      <c r="N10" s="99" t="s">
+      <c r="N10" s="98" t="s">
         <v>372</v>
       </c>
       <c r="O10" s="9" t="s">
@@ -14194,23 +14197,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EA3DD6FD0640724CAC6A104AA4040E53" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="95a591a9c1d64a7009b5597c446bd65f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3dc215b4-4765-4137-95ef-e24fb8216673" xmlns:ns3="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63634f6e381b5ed55a864cdabf38da8d" ns2:_="" ns3:_="">
     <xsd:import namespace="3dc215b4-4765-4137-95ef-e24fb8216673"/>
@@ -14435,25 +14421,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C7FF019-6E9E-4327-8A98-09E2F73626E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9663087D-43C0-4E56-A8DA-483B09F130B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69987298-F94B-4FAE-824D-77320F34A719}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14470,4 +14455,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9663087D-43C0-4E56-A8DA-483B09F130B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C7FF019-6E9E-4327-8A98-09E2F73626E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>